--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -786,9 +794,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> Product</t>
     </r>
@@ -882,17 +887,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1937</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1038,11 +1047,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1699,14 +1703,14 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1732,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,13 +1756,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1767,20 +1771,20 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1808,7 +1812,7 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,28 +1829,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1857,7 +1861,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,7 +1870,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1876,7 +1880,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1885,19 +1889,19 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1932,31 +1936,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2202,80 +2206,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3911600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2508,7 +2447,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2945,34 +2884,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1">
+    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -2981,7 +2920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>114</v>
@@ -2990,7 +2929,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -2999,29 +2938,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="119" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="120"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="121"/>
       <c r="C10" s="122"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="121" t="s">
         <v>117</v>
@@ -3030,33 +2969,33 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="121"/>
       <c r="C12" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="121"/>
       <c r="C13" s="124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="121"/>
       <c r="C14" s="122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="121"/>
       <c r="C15" s="122"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="121" t="s">
         <v>122</v>
@@ -3065,49 +3004,49 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="121"/>
       <c r="C17" s="126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="121"/>
       <c r="C18" s="127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="121"/>
       <c r="C19" s="128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="129"/>
       <c r="C20" s="130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="129"/>
       <c r="C21" s="131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="129"/>
       <c r="C22" s="132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="129"/>
       <c r="C23" s="133" t="s">
         <v>130</v>
@@ -3116,46 +3055,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="45.625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3.25" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="58"/>
+    <col min="1" max="1" width="3.5703125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="59"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="173" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
@@ -3164,7 +3098,7 @@
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="176"/>
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
@@ -3173,7 +3107,7 @@
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="176"/>
       <c r="C4" s="177"/>
       <c r="D4" s="177"/>
@@ -3182,7 +3116,7 @@
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="179"/>
       <c r="C5" s="180"/>
       <c r="D5" s="180"/>
@@ -3191,10 +3125,10 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="59"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3205,7 +3139,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="61"/>
     </row>
-    <row r="8" spans="2:11" s="38" customFormat="1">
+    <row r="8" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149"/>
       <c r="C8" s="16" t="s">
         <v>36</v>
@@ -3226,7 +3160,7 @@
       </c>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="2:11" s="38" customFormat="1">
+    <row r="9" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
       <c r="C9" s="14"/>
       <c r="D9" s="46"/>
@@ -3237,7 +3171,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:11" s="38" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="14" t="s">
         <v>131</v>
@@ -3250,7 +3184,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:11" s="38" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="62" t="s">
         <v>37</v>
@@ -3269,7 +3203,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
       <c r="C12" s="62" t="s">
         <v>39</v>
@@ -3289,7 +3223,7 @@
       <c r="J12" s="148"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="62" t="s">
         <v>40</v>
@@ -3309,7 +3243,7 @@
       <c r="J13" s="148"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
       <c r="C14" s="62" t="s">
         <v>42</v>
@@ -3329,7 +3263,7 @@
       <c r="J14" s="148"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
       <c r="C15" s="62" t="s">
         <v>11</v>
@@ -3349,7 +3283,7 @@
       <c r="J15" s="148"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="64"/>
       <c r="C16" s="62" t="s">
         <v>45</v>
@@ -3369,7 +3303,7 @@
       <c r="J16" s="148"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="62" t="s">
         <v>46</v>
@@ -3389,7 +3323,7 @@
       <c r="J17" s="148"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="62" t="s">
         <v>47</v>
@@ -3411,7 +3345,7 @@
       </c>
       <c r="J18" s="148"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="62" t="s">
         <v>48</v>
@@ -3432,7 +3366,7 @@
       </c>
       <c r="J19" s="148"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="64"/>
       <c r="C20" s="62" t="s">
         <v>49</v>
@@ -3453,7 +3387,7 @@
       </c>
       <c r="J20" s="148"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
       <c r="C21" s="62" t="s">
         <v>66</v>
@@ -3474,7 +3408,7 @@
       </c>
       <c r="J21" s="148"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="64"/>
       <c r="C22" s="62" t="s">
         <v>50</v>
@@ -3495,7 +3429,7 @@
       </c>
       <c r="J22" s="148"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="64"/>
       <c r="C23" s="62" t="s">
         <v>51</v>
@@ -3516,7 +3450,7 @@
       </c>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="64"/>
       <c r="C24" s="62" t="s">
         <v>52</v>
@@ -3537,7 +3471,7 @@
       </c>
       <c r="J24" s="148"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="64"/>
       <c r="C25" s="59"/>
       <c r="D25" s="151"/>
@@ -3548,7 +3482,7 @@
       <c r="I25" s="59"/>
       <c r="J25" s="148"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="64"/>
       <c r="C26" s="14" t="s">
         <v>145</v>
@@ -3561,7 +3495,7 @@
       <c r="I26" s="59"/>
       <c r="J26" s="148"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
         <v>53</v>
@@ -3583,7 +3517,7 @@
       </c>
       <c r="J27" s="148"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="64"/>
       <c r="C28" s="62" t="s">
         <v>54</v>
@@ -3604,7 +3538,7 @@
       </c>
       <c r="J28" s="148"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="64"/>
       <c r="C29" s="62" t="s">
         <v>13</v>
@@ -3625,7 +3559,7 @@
       </c>
       <c r="J29" s="148"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="64"/>
       <c r="C30" s="62" t="s">
         <v>55</v>
@@ -3646,7 +3580,7 @@
       </c>
       <c r="J30" s="148"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="64"/>
       <c r="C31" s="62" t="s">
         <v>56</v>
@@ -3668,7 +3602,7 @@
       </c>
       <c r="J31" s="148"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="64"/>
       <c r="C32" s="62" t="s">
         <v>57</v>
@@ -3690,7 +3624,7 @@
       </c>
       <c r="J32" s="148"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="64"/>
       <c r="C33" s="62" t="s">
         <v>58</v>
@@ -3711,7 +3645,7 @@
       </c>
       <c r="J33" s="148"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64"/>
       <c r="C34" s="62" t="s">
         <v>61</v>
@@ -3732,7 +3666,7 @@
       </c>
       <c r="J34" s="148"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="64"/>
       <c r="C35" s="62" t="s">
         <v>44</v>
@@ -3751,7 +3685,7 @@
       </c>
       <c r="J35" s="148"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="64"/>
       <c r="C36" s="59"/>
       <c r="D36" s="151"/>
@@ -3762,7 +3696,7 @@
       <c r="I36" s="59"/>
       <c r="J36" s="148"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="64"/>
       <c r="C37" s="14" t="s">
         <v>8</v>
@@ -3775,7 +3709,7 @@
       <c r="I37" s="59"/>
       <c r="J37" s="148"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="64"/>
       <c r="C38" s="62" t="s">
         <v>43</v>
@@ -3797,7 +3731,7 @@
       </c>
       <c r="J38" s="148"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="64"/>
       <c r="C39" s="62" t="s">
         <v>59</v>
@@ -3815,11 +3749,11 @@
       </c>
       <c r="H39" s="62"/>
       <c r="I39" s="155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J39" s="148"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="64"/>
       <c r="C40" s="62" t="s">
         <v>60</v>
@@ -3837,11 +3771,11 @@
       </c>
       <c r="H40" s="62"/>
       <c r="I40" s="155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" s="148"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="64"/>
       <c r="C41" s="62" t="s">
         <v>41</v>
@@ -3860,7 +3794,7 @@
       </c>
       <c r="J41" s="148"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="64"/>
       <c r="C42" s="62" t="s">
         <v>62</v>
@@ -3879,7 +3813,7 @@
       </c>
       <c r="J42" s="148"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="64"/>
       <c r="C43" s="62" t="s">
         <v>14</v>
@@ -3898,7 +3832,7 @@
       </c>
       <c r="J43" s="148"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="64"/>
       <c r="C44" s="62" t="s">
         <v>63</v>
@@ -3917,7 +3851,7 @@
       </c>
       <c r="J44" s="148"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64"/>
       <c r="C45" s="62" t="s">
         <v>67</v>
@@ -3936,7 +3870,7 @@
       </c>
       <c r="J45" s="148"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="64"/>
       <c r="C46" s="62" t="s">
         <v>64</v>
@@ -3955,7 +3889,7 @@
       </c>
       <c r="J46" s="148"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="64"/>
       <c r="C47" s="62" t="s">
         <v>68</v>
@@ -3974,7 +3908,7 @@
       </c>
       <c r="J47" s="148"/>
     </row>
-    <row r="48" spans="2:10" ht="16" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="64"/>
       <c r="C48" s="62" t="s">
         <v>69</v>
@@ -3993,7 +3927,7 @@
       </c>
       <c r="J48" s="148"/>
     </row>
-    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="67"/>
       <c r="C49" s="68"/>
       <c r="D49" s="68"/>
@@ -4010,43 +3944,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3911600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4061,33 +3958,33 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="71" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="71" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.375" style="71" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="72" customWidth="1"/>
-    <col min="11" max="11" width="1.75" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="72" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="72" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="72" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="72" customWidth="1"/>
     <col min="13" max="13" width="2" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="72" customWidth="1"/>
-    <col min="15" max="15" width="2.75" style="71" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="72" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="71" customWidth="1"/>
     <col min="16" max="16" width="10" style="72" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" style="72" customWidth="1"/>
     <col min="18" max="18" width="10" style="72" customWidth="1"/>
-    <col min="19" max="19" width="2.125" style="71" customWidth="1"/>
-    <col min="20" max="20" width="73.875" style="71" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="71"/>
+    <col min="19" max="19" width="2.140625" style="71" customWidth="1"/>
+    <col min="20" max="20" width="73.85546875" style="71" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -4108,7 +4005,7 @@
       <c r="S2" s="74"/>
       <c r="T2" s="74"/>
     </row>
-    <row r="3" spans="2:20" s="38" customFormat="1">
+    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="140" t="s">
         <v>139</v>
@@ -4144,10 +4041,10 @@
       </c>
       <c r="S3" s="140"/>
       <c r="T3" s="140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -4168,7 +4065,7 @@
       <c r="S4" s="142"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="2:20" ht="16" thickBot="1">
+    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="47" t="s">
         <v>131</v>
@@ -4191,7 +4088,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="79"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="80" t="s">
         <v>33</v>
@@ -4214,7 +4111,7 @@
       <c r="O6" s="78"/>
       <c r="T6" s="79"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="76"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -4231,7 +4128,7 @@
       <c r="O7" s="78"/>
       <c r="T7" s="79"/>
     </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1">
+    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="76"/>
       <c r="C8" s="47" t="s">
         <v>8</v>
@@ -4250,7 +4147,7 @@
       <c r="O8" s="78"/>
       <c r="T8" s="79"/>
     </row>
-    <row r="9" spans="2:20" ht="16" thickBot="1">
+    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="93" t="s">
         <v>1</v>
@@ -4283,7 +4180,7 @@
       <c r="R9" s="78"/>
       <c r="T9" s="79"/>
     </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="94" t="s">
         <v>6</v>
@@ -4316,7 +4213,7 @@
       <c r="R10" s="78"/>
       <c r="T10" s="79"/>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="76"/>
       <c r="C11" s="143" t="s">
         <v>140</v>
@@ -4350,7 +4247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="76"/>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -4369,7 +4266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="76"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -4391,7 +4288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="13" t="s">
         <v>132</v>
@@ -4413,7 +4310,7 @@
       <c r="R14" s="92"/>
       <c r="T14" s="79"/>
     </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
+    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="136" t="s">
         <v>133</v>
@@ -4440,7 +4337,7 @@
       <c r="R15" s="92"/>
       <c r="T15" s="79"/>
     </row>
-    <row r="16" spans="2:20" ht="16" thickBot="1">
+    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="97" t="s">
         <v>9</v>
@@ -4473,7 +4370,7 @@
       <c r="R16" s="92"/>
       <c r="T16" s="79"/>
     </row>
-    <row r="17" spans="2:20" ht="16" thickBot="1">
+    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76"/>
       <c r="C17" s="93" t="s">
         <v>141</v>
@@ -4503,7 +4400,7 @@
       <c r="R17" s="70"/>
       <c r="T17" s="108"/>
     </row>
-    <row r="18" spans="2:20" ht="16" thickBot="1">
+    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="93" t="s">
         <v>142</v>
@@ -4534,7 +4431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="16" thickBot="1">
+    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="93" t="s">
         <v>109</v>
@@ -4563,7 +4460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="16" thickBot="1">
+    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="76"/>
       <c r="C20" s="93" t="s">
         <v>109</v>
@@ -4590,7 +4487,7 @@
       <c r="R20" s="70"/>
       <c r="T20" s="108"/>
     </row>
-    <row r="21" spans="2:20" ht="16" thickBot="1">
+    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="76"/>
       <c r="C21" s="93" t="s">
         <v>109</v>
@@ -4618,7 +4515,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="16" thickBot="1">
+    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="76"/>
       <c r="C22" s="144" t="s">
         <v>143</v>
@@ -4644,10 +4541,10 @@
       <c r="R22" s="92"/>
       <c r="T22" s="79"/>
     </row>
-    <row r="23" spans="2:20" ht="16" thickBot="1">
+    <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
@@ -4678,11 +4575,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4697,23 +4589,23 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="156" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="27" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="25"/>
+    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="156" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4724,7 +4616,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="14" t="s">
         <v>24</v>
@@ -4737,7 +4629,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -4748,7 +4640,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>34</v>
@@ -4763,19 +4655,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>91</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4786,7 +4678,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="22"/>
@@ -4797,7 +4689,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
@@ -4814,13 +4706,13 @@
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" s="154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="52" t="s">
         <v>1</v>
@@ -4833,7 +4725,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="53" t="s">
         <v>6</v>
@@ -4846,7 +4738,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="110"/>
       <c r="D11" s="32"/>
@@ -4857,7 +4749,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="110"/>
       <c r="D12" s="104" t="s">
@@ -4874,13 +4766,13 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="53" t="s">
         <v>113</v>
@@ -4893,7 +4785,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="134" t="s">
         <v>9</v>
@@ -4906,7 +4798,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="109" t="s">
         <v>100</v>
@@ -4919,7 +4811,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="109" t="s">
         <v>101</v>
@@ -4932,7 +4824,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="32"/>
       <c r="D17" s="56"/>
@@ -4943,7 +4835,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="32"/>
       <c r="D18" s="56" t="s">
@@ -4960,11 +4852,11 @@
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="135" t="s">
         <v>87</v>
@@ -4977,7 +4869,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="55"/>
       <c r="D20" s="22"/>
@@ -4988,7 +4880,7 @@
       <c r="I20" s="37"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="56"/>
       <c r="D21" s="49" t="s">
@@ -5007,7 +4899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="55" t="s">
         <v>90</v>
@@ -5022,7 +4914,7 @@
       <c r="I22" s="37"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="55"/>
       <c r="D23" s="22"/>
@@ -5033,7 +4925,7 @@
       <c r="I23" s="37"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="56"/>
       <c r="D24" s="50" t="s">
@@ -5052,7 +4944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="C25" s="55" t="s">
         <v>90</v>
@@ -5073,11 +4965,6 @@
   <ignoredErrors>
     <ignoredError sqref="F8 F12:G12 F18:G18" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5089,17 +4976,17 @@
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="153" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="153" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="153" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="153"/>
+    <col min="2" max="2" width="4.85546875" style="153" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="153" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="168"/>
       <c r="C2" s="169"/>
       <c r="D2" s="169"/>
@@ -5115,14 +5002,14 @@
       <c r="N2" s="169"/>
       <c r="O2" s="169"/>
     </row>
-    <row r="3" spans="2:15" s="38" customFormat="1">
+    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -5135,7 +5022,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="170"/>
       <c r="C4" s="167"/>
       <c r="D4" s="167"/>
@@ -5151,7 +5038,7 @@
       <c r="N4" s="167"/>
       <c r="O4" s="167"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="170"/>
       <c r="C5" s="167" t="s">
         <v>72</v>
@@ -5169,7 +5056,7 @@
       <c r="N5" s="167"/>
       <c r="O5" s="167"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="170"/>
       <c r="C6" s="167"/>
       <c r="D6" s="167"/>
@@ -5185,10 +5072,10 @@
       <c r="N6" s="167"/>
       <c r="O6" s="167"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="170"/>
       <c r="C7" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="167"/>
       <c r="E7" s="167"/>
@@ -5203,7 +5090,7 @@
       <c r="N7" s="167"/>
       <c r="O7" s="167"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="170"/>
       <c r="C8" s="167"/>
       <c r="D8" s="167"/>
@@ -5219,7 +5106,7 @@
       <c r="N8" s="167"/>
       <c r="O8" s="167"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="170"/>
       <c r="C9" s="167"/>
       <c r="D9" s="167"/>
@@ -5235,7 +5122,7 @@
       <c r="N9" s="167"/>
       <c r="O9" s="167"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="170"/>
       <c r="C10" s="167"/>
       <c r="D10" s="167"/>
@@ -5251,7 +5138,7 @@
       <c r="N10" s="167"/>
       <c r="O10" s="167"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="170"/>
       <c r="C11" s="167"/>
       <c r="D11" s="167"/>
@@ -5267,7 +5154,7 @@
       <c r="N11" s="167"/>
       <c r="O11" s="167"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="170"/>
       <c r="C12" s="167"/>
       <c r="D12" s="167"/>
@@ -5283,7 +5170,7 @@
       <c r="N12" s="167"/>
       <c r="O12" s="167"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="170"/>
       <c r="C13" s="167"/>
       <c r="D13" s="167"/>
@@ -5299,7 +5186,7 @@
       <c r="N13" s="167"/>
       <c r="O13" s="167"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="170"/>
       <c r="C14" s="167"/>
       <c r="D14" s="167"/>
@@ -5315,7 +5202,7 @@
       <c r="N14" s="167"/>
       <c r="O14" s="167"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="170"/>
       <c r="C15" s="167"/>
       <c r="D15" s="167"/>
@@ -5331,7 +5218,7 @@
       <c r="N15" s="167"/>
       <c r="O15" s="167"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="170"/>
       <c r="C16" s="167"/>
       <c r="D16" s="167"/>
@@ -5347,7 +5234,7 @@
       <c r="N16" s="167"/>
       <c r="O16" s="167"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="170"/>
       <c r="C17" s="167"/>
       <c r="D17" s="167"/>
@@ -5363,7 +5250,7 @@
       <c r="N17" s="167"/>
       <c r="O17" s="167"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="170"/>
       <c r="C18" s="167"/>
       <c r="D18" s="167"/>
@@ -5379,7 +5266,7 @@
       <c r="N18" s="167"/>
       <c r="O18" s="167"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="170"/>
       <c r="C19" s="167"/>
       <c r="D19" s="167"/>
@@ -5395,7 +5282,7 @@
       <c r="N19" s="167"/>
       <c r="O19" s="167"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="170"/>
       <c r="C20" s="167"/>
       <c r="D20" s="167"/>
@@ -5411,7 +5298,7 @@
       <c r="N20" s="167"/>
       <c r="O20" s="167"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="170"/>
       <c r="C21" s="167"/>
       <c r="D21" s="167"/>
@@ -5427,14 +5314,14 @@
       <c r="N21" s="167"/>
       <c r="O21" s="167"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="170"/>
       <c r="C22" s="167"/>
       <c r="D22" s="167">
         <v>1400</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="167"/>
       <c r="G22" s="167"/>
@@ -5447,7 +5334,7 @@
       <c r="N22" s="167"/>
       <c r="O22" s="167"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="170"/>
       <c r="C23" s="167"/>
       <c r="D23" s="167"/>
@@ -5463,7 +5350,7 @@
       <c r="N23" s="167"/>
       <c r="O23" s="167"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="170"/>
       <c r="C24" s="167"/>
       <c r="D24" s="167"/>
@@ -5479,7 +5366,7 @@
       <c r="N24" s="167"/>
       <c r="O24" s="167"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="170"/>
       <c r="C25" s="167"/>
       <c r="D25" s="167"/>
@@ -5495,7 +5382,7 @@
       <c r="N25" s="167"/>
       <c r="O25" s="167"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="170"/>
       <c r="C26" s="167"/>
       <c r="D26" s="167"/>
@@ -5511,7 +5398,7 @@
       <c r="N26" s="167"/>
       <c r="O26" s="167"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="170"/>
       <c r="C27" s="167" t="s">
         <v>97</v>
@@ -5529,7 +5416,7 @@
       <c r="N27" s="167"/>
       <c r="O27" s="167"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="170"/>
       <c r="C28" s="167"/>
       <c r="D28" s="167"/>
@@ -5545,10 +5432,10 @@
       <c r="N28" s="167"/>
       <c r="O28" s="167"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="170"/>
       <c r="C29" s="167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" s="167"/>
       <c r="E29" s="167"/>
@@ -5563,7 +5450,7 @@
       <c r="N29" s="167"/>
       <c r="O29" s="167"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="170"/>
       <c r="C30" s="167"/>
       <c r="D30" s="167"/>
@@ -5579,7 +5466,7 @@
       <c r="N30" s="167"/>
       <c r="O30" s="167"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="170"/>
       <c r="C31" s="167"/>
       <c r="D31" s="167"/>
@@ -5595,7 +5482,7 @@
       <c r="N31" s="167"/>
       <c r="O31" s="167"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="170"/>
       <c r="C32" s="167"/>
       <c r="D32" s="167"/>
@@ -5611,7 +5498,7 @@
       <c r="N32" s="167"/>
       <c r="O32" s="167"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="170"/>
       <c r="C33" s="167"/>
       <c r="D33" s="167"/>
@@ -5627,14 +5514,14 @@
       <c r="N33" s="167"/>
       <c r="O33" s="167"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="170"/>
       <c r="C34" s="167"/>
       <c r="D34" s="167">
         <v>1400</v>
       </c>
       <c r="E34" s="167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="167"/>
       <c r="G34" s="167"/>
@@ -5647,7 +5534,7 @@
       <c r="N34" s="167"/>
       <c r="O34" s="167"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="170"/>
       <c r="C35" s="167"/>
       <c r="D35" s="167"/>
@@ -5663,7 +5550,7 @@
       <c r="N35" s="167"/>
       <c r="O35" s="167"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="170"/>
       <c r="C36" s="167"/>
       <c r="D36" s="167"/>
@@ -5679,7 +5566,7 @@
       <c r="N36" s="167"/>
       <c r="O36" s="167"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="170"/>
       <c r="C37" s="167"/>
       <c r="D37" s="167"/>
@@ -5695,7 +5582,7 @@
       <c r="N37" s="167"/>
       <c r="O37" s="167"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="170"/>
       <c r="C38" s="167"/>
       <c r="D38" s="167"/>
@@ -5711,7 +5598,7 @@
       <c r="N38" s="167"/>
       <c r="O38" s="167"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="170"/>
       <c r="C39" s="167"/>
       <c r="D39" s="167"/>
@@ -5727,7 +5614,7 @@
       <c r="N39" s="167"/>
       <c r="O39" s="167"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="170"/>
       <c r="C40" s="167"/>
       <c r="D40" s="167"/>
@@ -5743,7 +5630,7 @@
       <c r="N40" s="167"/>
       <c r="O40" s="167"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="170"/>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -5759,7 +5646,7 @@
       <c r="N41" s="167"/>
       <c r="O41" s="167"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="170"/>
       <c r="C42" s="167"/>
       <c r="D42" s="167"/>
@@ -5775,7 +5662,7 @@
       <c r="N42" s="167"/>
       <c r="O42" s="167"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="170"/>
       <c r="C43" s="167"/>
       <c r="D43" s="167"/>
@@ -5791,7 +5678,7 @@
       <c r="N43" s="167"/>
       <c r="O43" s="167"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="170"/>
       <c r="C44" s="167"/>
       <c r="D44" s="167"/>
@@ -5807,7 +5694,7 @@
       <c r="N44" s="167"/>
       <c r="O44" s="167"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="170"/>
       <c r="C45" s="167"/>
       <c r="D45" s="167"/>
@@ -5823,7 +5710,7 @@
       <c r="N45" s="167"/>
       <c r="O45" s="167"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="170"/>
       <c r="C46" s="167"/>
       <c r="D46" s="167"/>
@@ -5839,7 +5726,7 @@
       <c r="N46" s="167"/>
       <c r="O46" s="167"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="170"/>
       <c r="C47" s="167"/>
       <c r="D47" s="167"/>
@@ -5855,7 +5742,7 @@
       <c r="N47" s="167"/>
       <c r="O47" s="167"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="170"/>
       <c r="C48" s="167"/>
       <c r="D48" s="167"/>
@@ -5871,10 +5758,10 @@
       <c r="N48" s="167"/>
       <c r="O48" s="167"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="170"/>
       <c r="C49" s="167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="167"/>
       <c r="E49" s="167"/>
@@ -5889,7 +5776,7 @@
       <c r="N49" s="167"/>
       <c r="O49" s="167"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="170"/>
       <c r="C50" s="167"/>
       <c r="D50" s="167"/>
@@ -5905,7 +5792,7 @@
       <c r="N50" s="167"/>
       <c r="O50" s="167"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="170"/>
       <c r="C51" s="167"/>
       <c r="D51" s="167"/>
@@ -5921,7 +5808,7 @@
       <c r="N51" s="167"/>
       <c r="O51" s="167"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="170"/>
       <c r="C52" s="167"/>
       <c r="D52" s="167"/>
@@ -5937,16 +5824,16 @@
       <c r="N52" s="167"/>
       <c r="O52" s="167"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="170"/>
       <c r="C53" s="167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="167">
         <v>20</v>
       </c>
       <c r="E53" s="167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F53" s="167"/>
       <c r="G53" s="167"/>
@@ -5959,7 +5846,7 @@
       <c r="N53" s="167"/>
       <c r="O53" s="167"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="170"/>
       <c r="C54" s="167"/>
       <c r="D54" s="167"/>
@@ -5975,7 +5862,7 @@
       <c r="N54" s="167"/>
       <c r="O54" s="167"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="170"/>
       <c r="C55" s="167"/>
       <c r="D55" s="167"/>
@@ -5991,7 +5878,7 @@
       <c r="N55" s="167"/>
       <c r="O55" s="167"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="170"/>
       <c r="C56" s="167"/>
       <c r="D56" s="167"/>
@@ -6007,7 +5894,7 @@
       <c r="N56" s="167"/>
       <c r="O56" s="167"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="170"/>
       <c r="C57" s="167"/>
       <c r="D57" s="167"/>
@@ -6023,7 +5910,7 @@
       <c r="N57" s="167"/>
       <c r="O57" s="167"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="170"/>
       <c r="C58" s="167"/>
       <c r="D58" s="167"/>
@@ -6039,7 +5926,7 @@
       <c r="N58" s="167"/>
       <c r="O58" s="167"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="170"/>
       <c r="C59" s="167"/>
       <c r="D59" s="167"/>
@@ -6055,7 +5942,7 @@
       <c r="N59" s="167"/>
       <c r="O59" s="167"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="170"/>
       <c r="C60" s="167"/>
       <c r="D60" s="167"/>
@@ -6071,7 +5958,7 @@
       <c r="N60" s="167"/>
       <c r="O60" s="167"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="170"/>
       <c r="C61" s="167"/>
       <c r="D61" s="167"/>
@@ -6087,7 +5974,7 @@
       <c r="N61" s="167"/>
       <c r="O61" s="167"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="170"/>
       <c r="C62" s="167"/>
       <c r="D62" s="167"/>
@@ -6103,7 +5990,7 @@
       <c r="N62" s="167"/>
       <c r="O62" s="167"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="170"/>
       <c r="C63" s="167"/>
       <c r="D63" s="167"/>
@@ -6119,7 +6006,7 @@
       <c r="N63" s="167"/>
       <c r="O63" s="167"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="170"/>
       <c r="C64" s="167"/>
       <c r="D64" s="167"/>
@@ -6135,7 +6022,7 @@
       <c r="N64" s="167"/>
       <c r="O64" s="167"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="170"/>
       <c r="C65" s="167"/>
       <c r="D65" s="167"/>
@@ -6151,7 +6038,7 @@
       <c r="N65" s="167"/>
       <c r="O65" s="167"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="170"/>
       <c r="C66" s="167"/>
       <c r="D66" s="167"/>
@@ -6167,7 +6054,7 @@
       <c r="N66" s="167"/>
       <c r="O66" s="167"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="170"/>
       <c r="C67" s="167"/>
       <c r="D67" s="167"/>
@@ -6183,10 +6070,10 @@
       <c r="N67" s="167"/>
       <c r="O67" s="167"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="170"/>
       <c r="C68" s="167" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" s="167"/>
       <c r="E68" s="167"/>
@@ -6201,7 +6088,7 @@
       <c r="N68" s="167"/>
       <c r="O68" s="167"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="170"/>
       <c r="C69" s="167"/>
       <c r="D69" s="167"/>
@@ -6217,7 +6104,7 @@
       <c r="N69" s="167"/>
       <c r="O69" s="167"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="170"/>
       <c r="C70" s="167"/>
       <c r="D70" s="167"/>
@@ -6233,7 +6120,7 @@
       <c r="N70" s="167"/>
       <c r="O70" s="167"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="170"/>
       <c r="C71" s="167"/>
       <c r="D71" s="167"/>
@@ -6249,7 +6136,7 @@
       <c r="N71" s="167"/>
       <c r="O71" s="167"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="170"/>
       <c r="C72" s="167"/>
       <c r="D72" s="167"/>
@@ -6265,7 +6152,7 @@
       <c r="N72" s="167"/>
       <c r="O72" s="167"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="170"/>
       <c r="C73" s="167" t="s">
         <v>1</v>
@@ -6274,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G73" s="167"/>
       <c r="H73" s="167"/>
@@ -6286,16 +6173,16 @@
       <c r="N73" s="167"/>
       <c r="O73" s="167"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="170"/>
       <c r="C74" s="167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="167">
         <v>40</v>
       </c>
       <c r="E74" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" s="167"/>
       <c r="H74" s="167"/>
@@ -6307,7 +6194,7 @@
       <c r="N74" s="167"/>
       <c r="O74" s="167"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="170"/>
       <c r="C75" s="167"/>
       <c r="D75" s="167"/>
@@ -6323,7 +6210,7 @@
       <c r="N75" s="167"/>
       <c r="O75" s="167"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="170"/>
       <c r="C76" s="167"/>
       <c r="D76" s="167"/>
@@ -6339,7 +6226,7 @@
       <c r="N76" s="167"/>
       <c r="O76" s="167"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="170"/>
       <c r="C77" s="167"/>
       <c r="D77" s="167"/>
@@ -6355,7 +6242,7 @@
       <c r="N77" s="167"/>
       <c r="O77" s="167"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="170"/>
       <c r="C78" s="167"/>
       <c r="D78" s="167"/>
@@ -6371,7 +6258,7 @@
       <c r="N78" s="167"/>
       <c r="O78" s="167"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="170"/>
       <c r="C79" s="167"/>
       <c r="D79" s="167"/>
@@ -6387,7 +6274,7 @@
       <c r="N79" s="167"/>
       <c r="O79" s="167"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="170"/>
       <c r="C80" s="167"/>
       <c r="D80" s="167"/>
@@ -6403,7 +6290,7 @@
       <c r="N80" s="167"/>
       <c r="O80" s="167"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="170"/>
       <c r="C81" s="167"/>
       <c r="D81" s="167"/>
@@ -6419,7 +6306,7 @@
       <c r="N81" s="167"/>
       <c r="O81" s="167"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="170"/>
       <c r="C82" s="167"/>
       <c r="D82" s="167"/>
@@ -6435,7 +6322,7 @@
       <c r="N82" s="167"/>
       <c r="O82" s="167"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="170"/>
       <c r="C83" s="167"/>
       <c r="D83" s="167"/>
@@ -6451,7 +6338,7 @@
       <c r="N83" s="167"/>
       <c r="O83" s="167"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="170"/>
       <c r="C84" s="167"/>
       <c r="D84" s="167"/>
@@ -6467,7 +6354,7 @@
       <c r="N84" s="167"/>
       <c r="O84" s="167"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="170"/>
       <c r="C85" s="167"/>
       <c r="D85" s="167"/>
@@ -6483,7 +6370,7 @@
       <c r="N85" s="167"/>
       <c r="O85" s="167"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="170"/>
       <c r="C86" s="167" t="s">
         <v>26</v>
@@ -6501,10 +6388,10 @@
       <c r="N86" s="167"/>
       <c r="O86" s="167"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="170"/>
       <c r="C87" s="167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="167"/>
       <c r="E87" s="167"/>
@@ -6519,7 +6406,7 @@
       <c r="N87" s="167"/>
       <c r="O87" s="167"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="170"/>
       <c r="C88" s="167"/>
       <c r="D88" s="167"/>
@@ -6535,7 +6422,7 @@
       <c r="N88" s="167"/>
       <c r="O88" s="167"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="170"/>
       <c r="C89" s="167"/>
       <c r="D89" s="167"/>
@@ -6551,7 +6438,7 @@
       <c r="N89" s="167"/>
       <c r="O89" s="167"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="170"/>
       <c r="C90" s="167"/>
       <c r="D90" s="167"/>
@@ -6567,7 +6454,7 @@
       <c r="N90" s="167"/>
       <c r="O90" s="167"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="170"/>
       <c r="C91" s="167"/>
       <c r="D91" s="167"/>
@@ -6583,7 +6470,7 @@
       <c r="N91" s="167"/>
       <c r="O91" s="167"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="170"/>
       <c r="C92" s="167"/>
       <c r="D92" s="167"/>
@@ -6599,7 +6486,7 @@
       <c r="N92" s="167"/>
       <c r="O92" s="167"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="170"/>
       <c r="C93" s="167"/>
       <c r="D93" s="167"/>
@@ -6615,7 +6502,7 @@
       <c r="N93" s="167"/>
       <c r="O93" s="167"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="170"/>
       <c r="C94" s="167"/>
       <c r="D94" s="167"/>
@@ -6631,17 +6518,17 @@
       <c r="N94" s="167"/>
       <c r="O94" s="167"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="170"/>
       <c r="C95" s="167"/>
       <c r="D95" s="167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E95" s="167">
         <v>40</v>
       </c>
       <c r="F95" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G95" s="167"/>
       <c r="H95" s="167"/>
@@ -6653,7 +6540,7 @@
       <c r="N95" s="167"/>
       <c r="O95" s="167"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="170"/>
       <c r="C96" s="167"/>
       <c r="D96" s="167"/>
@@ -6669,7 +6556,7 @@
       <c r="N96" s="167"/>
       <c r="O96" s="167"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="170"/>
       <c r="C97" s="167"/>
       <c r="D97" s="167"/>
@@ -6685,7 +6572,7 @@
       <c r="N97" s="167"/>
       <c r="O97" s="167"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="170"/>
       <c r="C98" s="167"/>
       <c r="D98" s="167"/>
@@ -6701,7 +6588,7 @@
       <c r="N98" s="167"/>
       <c r="O98" s="167"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="170"/>
       <c r="C99" s="167"/>
       <c r="D99" s="167"/>
@@ -6717,10 +6604,10 @@
       <c r="N99" s="167"/>
       <c r="O99" s="167"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="170"/>
       <c r="C100" s="167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D100" s="167"/>
       <c r="E100" s="167"/>
@@ -6735,7 +6622,7 @@
       <c r="N100" s="167"/>
       <c r="O100" s="167"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="170"/>
       <c r="C101" s="167"/>
       <c r="D101" s="167"/>
@@ -6751,7 +6638,7 @@
       <c r="N101" s="167"/>
       <c r="O101" s="167"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="170"/>
       <c r="C102" s="167"/>
       <c r="D102" s="167"/>
@@ -6767,7 +6654,7 @@
       <c r="N102" s="167"/>
       <c r="O102" s="167"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="170"/>
       <c r="C103" s="167"/>
       <c r="D103" s="167"/>
@@ -6783,7 +6670,7 @@
       <c r="N103" s="167"/>
       <c r="O103" s="167"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="170"/>
       <c r="C104" s="167"/>
       <c r="D104" s="167"/>
@@ -6799,7 +6686,7 @@
       <c r="N104" s="167"/>
       <c r="O104" s="167"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="170"/>
       <c r="C105" s="167"/>
       <c r="D105" s="167"/>
@@ -6815,7 +6702,7 @@
       <c r="N105" s="167"/>
       <c r="O105" s="167"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="170"/>
       <c r="C106" s="167"/>
       <c r="D106" s="167" t="s">
@@ -6825,7 +6712,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G106" s="167"/>
       <c r="H106" s="167"/>
@@ -6837,7 +6724,7 @@
       <c r="N106" s="167"/>
       <c r="O106" s="167"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="170"/>
       <c r="C107" s="167"/>
       <c r="D107" s="167"/>
@@ -6853,7 +6740,7 @@
       <c r="N107" s="167"/>
       <c r="O107" s="167"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="170"/>
       <c r="C108" s="167"/>
       <c r="D108" s="167"/>
@@ -6869,7 +6756,7 @@
       <c r="N108" s="167"/>
       <c r="O108" s="167"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="170"/>
       <c r="C109" s="167"/>
       <c r="D109" s="167"/>
@@ -6885,7 +6772,7 @@
       <c r="N109" s="167"/>
       <c r="O109" s="167"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="170"/>
       <c r="C110" s="167"/>
       <c r="D110" s="167"/>
@@ -6901,7 +6788,7 @@
       <c r="N110" s="167"/>
       <c r="O110" s="167"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="170"/>
       <c r="C111" s="167"/>
       <c r="D111" s="167"/>
@@ -6921,10 +6808,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A342B1-839F-DA47-9E8D-ED9F71E4D906}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
   <si>
     <t>Source</t>
   </si>
@@ -198,18 +199,6 @@
     <t>heat_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -249,9 +238,6 @@
     <t>energy_power_ultra_supercritical_coal.central_producer.ad</t>
   </si>
   <si>
-    <t>simult_se</t>
-  </si>
-  <si>
     <t>hours_maint_nl</t>
   </si>
   <si>
@@ -274,9 +260,6 @@
   </si>
   <si>
     <t>Heat output capacity</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -430,18 +413,6 @@
   </si>
   <si>
     <t>Expert from E.ON</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
   </si>
   <si>
     <r>
@@ -895,13 +866,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1624,7 +1595,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1733,7 +1704,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1843,7 +1813,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2210,6 +2179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2231,7 +2203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2268,7 +2246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2306,7 +2290,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2344,7 +2334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2382,7 +2378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2420,7 +2422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2880,56 +2888,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="41" customFormat="1">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -2938,118 +2946,118 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="118"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="124" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="120"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="121" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="123" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="124" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="127"/>
+      <c r="C23" s="131" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="131" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="129"/>
-      <c r="C23" s="133" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3059,76 +3067,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K49"/>
+  <dimension ref="B1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="58"/>
+    <col min="1" max="1" width="3.5" style="58" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="58" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="58" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="59"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="171" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="176"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="59"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="60"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3139,12 +3147,12 @@
       <c r="I7" s="19"/>
       <c r="J7" s="61"/>
     </row>
-    <row r="8" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="149"/>
+    <row r="8" spans="2:11" s="38" customFormat="1">
+      <c r="B8" s="147"/>
       <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="148" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3160,7 +3168,7 @@
       </c>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="38" customFormat="1">
       <c r="B9" s="26"/>
       <c r="C9" s="14"/>
       <c r="D9" s="46"/>
@@ -3171,10 +3179,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="26"/>
       <c r="C10" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="14"/>
@@ -3184,7 +3192,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="26"/>
       <c r="C11" s="62" t="s">
         <v>37</v>
@@ -3199,11 +3207,11 @@
       <c r="G11" s="62"/>
       <c r="H11" s="45"/>
       <c r="I11" s="63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="64"/>
       <c r="C12" s="62" t="s">
         <v>39</v>
@@ -3218,12 +3226,12 @@
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J12" s="146"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="64"/>
       <c r="C13" s="62" t="s">
         <v>40</v>
@@ -3238,12 +3246,12 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J13" s="146"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="64"/>
       <c r="C14" s="62" t="s">
         <v>42</v>
@@ -3258,12 +3266,12 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J14" s="146"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="64"/>
       <c r="C15" s="62" t="s">
         <v>11</v>
@@ -3278,12 +3286,12 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J15" s="146"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="64"/>
       <c r="C16" s="62" t="s">
         <v>45</v>
@@ -3298,12 +3306,12 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J16" s="146"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="64"/>
       <c r="C17" s="62" t="s">
         <v>46</v>
@@ -3318,18 +3326,18 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="148"/>
+        <v>68</v>
+      </c>
+      <c r="J17" s="146"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="64"/>
       <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E18" s="65">
         <f>'Research data'!H6</f>
@@ -3341,602 +3349,497 @@
       </c>
       <c r="H18" s="62"/>
       <c r="I18" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="148"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J18" s="146"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="64"/>
       <c r="C19" s="62" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E19" s="65">
         <v>0</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H19" s="62"/>
       <c r="I19" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="148"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J19" s="146"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="64"/>
-      <c r="C20" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="65">
-        <v>1</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="148"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="59"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="64"/>
-      <c r="C21" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="148"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="64"/>
       <c r="C22" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E22" s="65">
-        <v>1</v>
+        <f>'Research data'!H15</f>
+        <v>1120000000</v>
       </c>
       <c r="F22" s="62"/>
-      <c r="G22" s="116" t="s">
-        <v>106</v>
+      <c r="G22" s="62" t="s">
+        <v>9</v>
       </c>
       <c r="H22" s="62"/>
-      <c r="I22" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="148"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="146"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="64"/>
       <c r="C23" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E23" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="62"/>
-      <c r="G23" s="116" t="s">
-        <v>107</v>
+      <c r="G23" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="148"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J23" s="146"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="64"/>
       <c r="C24" s="62" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E24" s="65">
         <v>0</v>
       </c>
       <c r="F24" s="62"/>
-      <c r="G24" s="66" t="s">
-        <v>75</v>
+      <c r="G24" s="62" t="s">
+        <v>28</v>
       </c>
       <c r="H24" s="62"/>
       <c r="I24" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="148"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J24" s="146"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="64"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="148"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="65">
+        <v>0</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="146"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="64"/>
-      <c r="C26" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="148"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="144">
+        <f>'Research data'!H17</f>
+        <v>16000000</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="146"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="64"/>
       <c r="C27" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E27" s="65">
-        <f>'Research data'!H15</f>
-        <v>1120000000</v>
+        <f>'Research data'!H19</f>
+        <v>1382.4</v>
       </c>
       <c r="F27" s="62"/>
       <c r="G27" s="62" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="115" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="148"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="64"/>
       <c r="C28" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E28" s="65">
         <v>0</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H28" s="62"/>
       <c r="I28" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="148"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J28" s="146"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="64"/>
       <c r="C29" s="62" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E29" s="65">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="148"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J29" s="146"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="64"/>
       <c r="C30" s="62" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E30" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="62"/>
-      <c r="G30" s="62" t="s">
-        <v>31</v>
-      </c>
+      <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="148"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J30" s="146"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="64"/>
-      <c r="C31" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="146">
-        <f>'Research data'!H17</f>
-        <v>16000000</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="148"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="59"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="146"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="64"/>
-      <c r="C32" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="65">
-        <f>'Research data'!H19</f>
-        <v>1382.4</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="148"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="149"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="146"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="64"/>
       <c r="C33" s="62" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E33" s="65">
-        <v>0</v>
+        <f>'Research data'!H11</f>
+        <v>0.3</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="148"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J33" s="146"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="64"/>
       <c r="C34" s="62" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="65">
-        <v>0.1</v>
+        <f>'Research data'!H9</f>
+        <v>4</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H34" s="62"/>
-      <c r="I34" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="148"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="146"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="64"/>
       <c r="C35" s="62" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E35" s="65">
-        <v>1</v>
+        <f>'Research data'!H10</f>
+        <v>40</v>
       </c>
       <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="G35" s="62" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="62"/>
-      <c r="I35" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="148"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="146"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="64"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="148"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="65">
+        <v>0</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="146"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="64"/>
-      <c r="C37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="151"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="148"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="65">
+        <v>1350000</v>
+      </c>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="146"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="64"/>
       <c r="C38" s="62" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="65">
-        <f>'Research data'!H11</f>
-        <v>0.3</v>
+        <v>270000000</v>
       </c>
       <c r="F38" s="62"/>
-      <c r="G38" s="62" t="s">
-        <v>17</v>
-      </c>
+      <c r="G38" s="62"/>
       <c r="H38" s="62"/>
       <c r="I38" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="148"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J38" s="146"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="64"/>
       <c r="C39" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="65">
-        <f>'Research data'!H9</f>
-        <v>4</v>
+        <v>9000000</v>
       </c>
       <c r="F39" s="62"/>
-      <c r="G39" s="62" t="s">
-        <v>30</v>
-      </c>
+      <c r="G39" s="62"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="J39" s="148"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="146"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="64"/>
       <c r="C40" s="62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40" s="65">
-        <f>'Research data'!H10</f>
-        <v>40</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="62"/>
-      <c r="G40" s="62" t="s">
-        <v>29</v>
-      </c>
+      <c r="G40" s="62"/>
       <c r="H40" s="62"/>
-      <c r="I40" s="155" t="s">
-        <v>160</v>
-      </c>
-      <c r="J40" s="148"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="146"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="64"/>
       <c r="C41" s="62" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="65">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
       <c r="I41" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J41" s="148"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J41" s="146"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="64"/>
       <c r="C42" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="65">
-        <v>1350000</v>
+        <v>1</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="148"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J42" s="146"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="64"/>
       <c r="C43" s="62" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="65">
-        <v>270000000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="148"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="65">
-        <v>9000000</v>
-      </c>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="148"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
-      <c r="C45" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="65">
-        <v>180000</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" s="148"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="64"/>
-      <c r="C46" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="65">
-        <v>900000</v>
-      </c>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="148"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="64"/>
-      <c r="C47" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="65">
-        <v>1</v>
-      </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="148"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="64"/>
-      <c r="C48" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="65">
-        <v>0</v>
-      </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="148"/>
-    </row>
-    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
+      <c r="J43" s="146"/>
+    </row>
+    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3948,8 +3851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:T23"/>
@@ -3958,117 +3861,116 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="72" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="72" customWidth="1"/>
-    <col min="13" max="13" width="2" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="72" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="71" customWidth="1"/>
-    <col min="16" max="16" width="10" style="72" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" style="72" customWidth="1"/>
-    <col min="18" max="18" width="10" style="72" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="71" customWidth="1"/>
-    <col min="20" max="20" width="73.85546875" style="71" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="71"/>
+    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="70" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="70" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="70" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="70" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" style="71" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="2" style="71" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="71" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="70" customWidth="1"/>
+    <col min="16" max="16" width="10" style="71" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="71" customWidth="1"/>
+    <col min="18" max="18" width="10" style="71" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" style="70" customWidth="1"/>
+    <col min="20" max="20" width="73.83203125" style="70" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-    </row>
-    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="17" thickBot="1"/>
+    <row r="2" spans="2:20">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="2:20" s="38" customFormat="1">
       <c r="B3" s="26"/>
-      <c r="C3" s="140" t="s">
-        <v>139</v>
+      <c r="C3" s="138" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="140"/>
-      <c r="P3" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
+    <row r="5" spans="2:20" ht="17" thickBot="1">
+      <c r="B5" s="75"/>
       <c r="C5" s="47" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -4086,188 +3988,188 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="79"/>
-    </row>
-    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76"/>
-      <c r="C6" s="80" t="s">
+      <c r="T5" s="78"/>
+    </row>
+    <row r="6" spans="2:20" ht="17" thickBot="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="82">
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="139"/>
+      <c r="H6" s="81">
         <v>800</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="78"/>
-      <c r="T6" s="79"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="76"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="78"/>
-      <c r="T7" s="79"/>
-    </row>
-    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="77"/>
+      <c r="T6" s="78"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="75"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="77"/>
+      <c r="T7" s="78"/>
+    </row>
+    <row r="8" spans="2:20" ht="17" thickBot="1">
+      <c r="B8" s="75"/>
       <c r="C8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="78"/>
-      <c r="T8" s="79"/>
-    </row>
-    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="93" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="77"/>
+      <c r="T8" s="78"/>
+    </row>
+    <row r="9" spans="2:20" ht="17" thickBot="1">
+      <c r="B9" s="75"/>
+      <c r="C9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="81" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="112">
+      <c r="G9" s="82"/>
+      <c r="H9" s="111">
         <f>ROUND(4,0)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="113">
+      <c r="I9" s="69"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="112">
         <f>Notes!D73</f>
         <v>4</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="82">
+      <c r="M9" s="69"/>
+      <c r="N9" s="81">
         <f>Notes!E106</f>
         <v>4</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="T9" s="79"/>
-    </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="94" t="s">
+      <c r="O9" s="69"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="T9" s="78"/>
+    </row>
+    <row r="10" spans="2:20" ht="17" thickBot="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="81" t="s">
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="95">
+      <c r="G10" s="82"/>
+      <c r="H10" s="94">
         <f>ROUND(40,0)</f>
         <v>40</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="82">
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="81">
         <f>Notes!D74</f>
         <v>40</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="82">
+      <c r="M10" s="69"/>
+      <c r="N10" s="81">
         <f>Notes!E95</f>
         <v>40</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="T10" s="79"/>
-    </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="143" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="81" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="T10" s="78"/>
+    </row>
+    <row r="11" spans="2:20" ht="17" thickBot="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="86">
+      <c r="G11" s="82"/>
+      <c r="H11" s="85">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88">
+      <c r="I11" s="86"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87">
         <f>568*594/1000000</f>
         <v>0.33739200000000003</v>
       </c>
-      <c r="R11" s="88">
+      <c r="R11" s="87">
         <f>579*489/1000000</f>
         <v>0.28313100000000002</v>
       </c>
-      <c r="T11" s="89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="76"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
+      <c r="T11" s="88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="75"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
       <c r="T12" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="76"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="75"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -4281,17 +4183,17 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
       <c r="T13" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="17" thickBot="1">
+      <c r="B14" s="75"/>
       <c r="C14" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4305,273 +4207,273 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="T14" s="79"/>
-    </row>
-    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="136" t="s">
-        <v>133</v>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="T14" s="78"/>
+    </row>
+    <row r="15" spans="2:20" ht="17" thickBot="1">
+      <c r="B15" s="75"/>
+      <c r="C15" s="134" t="s">
+        <v>123</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="136" t="s">
+      <c r="F15" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="96">
+      <c r="G15" s="137"/>
+      <c r="H15" s="95">
         <f>ROUND(H16*H6*1000,2)</f>
         <v>1120000000</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="T15" s="79"/>
-    </row>
-    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
-      <c r="C16" s="97" t="s">
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="T15" s="78"/>
+    </row>
+    <row r="16" spans="2:20" ht="17" thickBot="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="137" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="96">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="139"/>
+      <c r="H16" s="95">
         <f>J16</f>
         <v>1400</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="96">
+      <c r="I16" s="69"/>
+      <c r="J16" s="95">
         <f>Notes!$D$22</f>
         <v>1400</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="96">
+      <c r="K16" s="69"/>
+      <c r="L16" s="95">
         <f>Notes!D34</f>
         <v>1400</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="T16" s="79"/>
-    </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
-      <c r="C17" s="93" t="s">
-        <v>141</v>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="T16" s="78"/>
+    </row>
+    <row r="17" spans="2:20" ht="17" thickBot="1">
+      <c r="B17" s="75"/>
+      <c r="C17" s="92" t="s">
+        <v>131</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="139"/>
-      <c r="H17" s="99">
+      <c r="F17" s="137" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="98">
         <f>ROUND(H18*1000*H6,2)</f>
         <v>16000000</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="99">
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="98">
         <f>L18*H6*1000</f>
         <v>16000000</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="T17" s="108"/>
-    </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="93" t="s">
-        <v>142</v>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="T17" s="107"/>
+    </row>
+    <row r="18" spans="2:20" ht="17" thickBot="1">
+      <c r="B18" s="75"/>
+      <c r="C18" s="92" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
-      <c r="F18" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="99">
+      <c r="F18" s="137" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="98">
         <v>20</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="96">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="95">
         <f>Notes!D53</f>
         <v>20</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="T18" s="118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76"/>
-      <c r="C19" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="96">
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="T18" s="116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="95">
         <f>ROUND(H21*H23/H22,2)</f>
         <v>1382.4</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="T19" s="118" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76"/>
-      <c r="C20" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="96">
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="T19" s="116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17" thickBot="1">
+      <c r="B20" s="75"/>
+      <c r="C20" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="95">
         <f>H19*H22</f>
         <v>10920960</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="T20" s="108"/>
-    </row>
-    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="137" t="s">
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="T20" s="107"/>
+    </row>
+    <row r="21" spans="2:20" ht="17" thickBot="1">
+      <c r="B21" s="75"/>
+      <c r="C21" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="139"/>
+      <c r="H21" s="102">
+        <v>1.728</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="T21" s="116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="17" thickBot="1">
+      <c r="B22" s="75"/>
+      <c r="C22" s="142" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="101">
+        <v>7900</v>
+      </c>
+      <c r="I22" s="90"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="T22" s="78"/>
+    </row>
+    <row r="23" spans="2:20" ht="17" thickBot="1">
+      <c r="B23" s="75"/>
+      <c r="C23" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="141"/>
-      <c r="H21" s="103">
-        <v>1.728</v>
-      </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="T21" s="118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="76"/>
-      <c r="C22" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="102">
-        <v>7900</v>
-      </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="T22" s="79"/>
-    </row>
-    <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="76"/>
-      <c r="C23" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="138" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="102">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="136" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="120"/>
+      <c r="H23" s="101">
         <f>H22*H6</f>
         <v>6320000</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="T23" s="79"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="T23" s="78"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T13" r:id="rId1"/>
-    <hyperlink ref="T12" r:id="rId2"/>
+    <hyperlink ref="T13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="T12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4579,8 +4481,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J25"/>
@@ -4589,34 +4491,34 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="156" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="105.42578125" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="25"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="154" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="27" customWidth="1"/>
+    <col min="10" max="10" width="105.5" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="20"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="157"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="23"/>
       <c r="C3" s="14" t="s">
         <v>24</v>
@@ -4624,23 +4526,23 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="158"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="14"/>
       <c r="I3" s="17"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="23"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="159"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="22"/>
       <c r="I4" s="30"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>34</v>
@@ -4654,42 +4556,42 @@
       <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="160" t="s">
-        <v>151</v>
+      <c r="G5" s="158" t="s">
+        <v>141</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="23"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="158"/>
+      <c r="G6" s="156"/>
       <c r="H6" s="14"/>
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="159"/>
+      <c r="G7" s="157"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="32">
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
@@ -4699,20 +4601,20 @@
         <v>25</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="166">
+        <v>80</v>
+      </c>
+      <c r="G8" s="164">
         <v>2010</v>
       </c>
       <c r="H8" s="57"/>
-      <c r="I8" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" s="154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="169" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="23"/>
       <c r="C9" s="52" t="s">
         <v>1</v>
@@ -4720,12 +4622,12 @@
       <c r="D9" s="32"/>
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="162"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="23"/>
       <c r="C10" s="53" t="s">
         <v>6</v>
@@ -4733,228 +4635,228 @@
       <c r="D10" s="32"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="162"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="23"/>
-      <c r="C11" s="110"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="32"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="162"/>
+      <c r="G11" s="160"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="32">
       <c r="B12" s="23"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="163" t="s">
-        <v>86</v>
+      <c r="C12" s="109"/>
+      <c r="D12" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="161" t="s">
+        <v>80</v>
       </c>
       <c r="H12" s="35"/>
-      <c r="I12" s="171" t="s">
-        <v>164</v>
+      <c r="I12" s="169" t="s">
+        <v>154</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="53" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="162"/>
+      <c r="G13" s="160"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="23"/>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="132" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="34"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="162"/>
+      <c r="G14" s="160"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="23"/>
-      <c r="C15" s="109" t="s">
-        <v>100</v>
+      <c r="C15" s="108" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="22"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="161"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="51"/>
       <c r="I15" s="30"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="23"/>
-      <c r="C16" s="109" t="s">
-        <v>101</v>
+      <c r="C16" s="108" t="s">
+        <v>95</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="22"/>
       <c r="F16" s="51"/>
-      <c r="G16" s="161"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="51"/>
       <c r="I16" s="30"/>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="32"/>
       <c r="D17" s="56"/>
       <c r="E17" s="22"/>
       <c r="F17" s="51"/>
-      <c r="G17" s="161"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="51"/>
       <c r="I17" s="30"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="32"/>
       <c r="D18" s="56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="164" t="s">
-        <v>84</v>
+      <c r="F18" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="162" t="s">
+        <v>78</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="172" t="s">
-        <v>165</v>
+      <c r="I18" s="170" t="s">
+        <v>155</v>
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="23"/>
-      <c r="C19" s="135" t="s">
-        <v>87</v>
+      <c r="C19" s="133" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="159"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="22"/>
       <c r="I19" s="30"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="23"/>
       <c r="C20" s="55"/>
       <c r="D20" s="22"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="165"/>
+      <c r="G20" s="163"/>
       <c r="H20" s="32"/>
       <c r="I20" s="37"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="23"/>
       <c r="C21" s="56"/>
       <c r="D21" s="49" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E21" s="56" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="165"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="23"/>
       <c r="C22" s="55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="165"/>
+      <c r="G22" s="163"/>
       <c r="H22" s="32"/>
       <c r="I22" s="37"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="23"/>
       <c r="C23" s="55"/>
       <c r="D23" s="22"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="165"/>
+      <c r="G23" s="163"/>
       <c r="H23" s="32"/>
       <c r="I23" s="37"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="23"/>
       <c r="C24" s="56"/>
       <c r="D24" s="50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E24" s="56" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="165"/>
+      <c r="G24" s="163"/>
       <c r="H24" s="56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="23"/>
       <c r="C25" s="55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="165"/>
+      <c r="G25" s="163"/>
       <c r="H25" s="32"/>
       <c r="I25" s="37"/>
       <c r="J25" s="32"/>
@@ -4969,47 +4871,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O111"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="153" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="153" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="153" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="153"/>
+    <col min="1" max="1" width="5" style="151" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="151" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="168"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-    </row>
-    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="149"/>
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+    </row>
+    <row r="3" spans="2:15" s="38" customFormat="1">
+      <c r="B3" s="147"/>
       <c r="C3" s="16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -5022,1787 +4924,1787 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="170"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="170"/>
-      <c r="C5" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="167" t="s">
+    <row r="4" spans="2:15">
+      <c r="B4" s="168"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="168"/>
+      <c r="C5" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="168"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="168"/>
+      <c r="C7" s="165" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="168"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="168"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="168"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="168"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="168"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="168"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="168"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="168"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="168"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="168"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="168"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="168"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="168"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="168"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="168"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="168"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="168"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="168"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="168"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="168"/>
+      <c r="C27" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="168"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="168"/>
+      <c r="C29" s="165" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="168"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="168"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="168"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="168"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="168"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165">
+        <v>1400</v>
+      </c>
+      <c r="E34" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="165"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="168"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="168"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="165"/>
+      <c r="O36" s="165"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="168"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="168"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165"/>
+      <c r="O38" s="165"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="168"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="168"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="165"/>
+      <c r="N40" s="165"/>
+      <c r="O40" s="165"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="168"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+      <c r="N41" s="165"/>
+      <c r="O41" s="165"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="168"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="165"/>
+      <c r="N42" s="165"/>
+      <c r="O42" s="165"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="168"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="165"/>
+      <c r="O43" s="165"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="168"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="168"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="168"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="165"/>
+      <c r="O46" s="165"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="168"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="165"/>
+      <c r="N47" s="165"/>
+      <c r="O47" s="165"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="168"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="165"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="165"/>
+      <c r="L48" s="165"/>
+      <c r="M48" s="165"/>
+      <c r="N48" s="165"/>
+      <c r="O48" s="165"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="168"/>
+      <c r="C49" s="165" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="165"/>
+      <c r="N49" s="165"/>
+      <c r="O49" s="165"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="168"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="165"/>
+      <c r="O50" s="165"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="168"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="165"/>
+      <c r="O51" s="165"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="168"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="165"/>
+      <c r="O52" s="165"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="168"/>
+      <c r="C53" s="165" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="165">
+        <v>20</v>
+      </c>
+      <c r="E53" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="168"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="165"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="165"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="168"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="165"/>
+      <c r="M55" s="165"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="165"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="168"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="165"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="168"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="165"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="165"/>
+      <c r="O57" s="165"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="168"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="165"/>
+      <c r="L58" s="165"/>
+      <c r="M58" s="165"/>
+      <c r="N58" s="165"/>
+      <c r="O58" s="165"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="168"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="165"/>
+      <c r="M59" s="165"/>
+      <c r="N59" s="165"/>
+      <c r="O59" s="165"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="168"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="165"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="165"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="168"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="165"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="168"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+      <c r="M62" s="165"/>
+      <c r="N62" s="165"/>
+      <c r="O62" s="165"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="168"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="165"/>
+      <c r="N63" s="165"/>
+      <c r="O63" s="165"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="168"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
+      <c r="M64" s="165"/>
+      <c r="N64" s="165"/>
+      <c r="O64" s="165"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="168"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
+      <c r="M65" s="165"/>
+      <c r="N65" s="165"/>
+      <c r="O65" s="165"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="168"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="165"/>
+      <c r="I66" s="165"/>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+      <c r="M66" s="165"/>
+      <c r="N66" s="165"/>
+      <c r="O66" s="165"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="168"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="165"/>
+      <c r="O67" s="165"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="168"/>
+      <c r="C68" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="168"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="165"/>
+      <c r="M69" s="165"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="165"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="168"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="165"/>
+      <c r="M70" s="165"/>
+      <c r="N70" s="165"/>
+      <c r="O70" s="165"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="168"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="165"/>
+      <c r="M71" s="165"/>
+      <c r="N71" s="165"/>
+      <c r="O71" s="165"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="168"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="165"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="165"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="165"/>
+      <c r="N72" s="165"/>
+      <c r="O72" s="165"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="168"/>
+      <c r="C73" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="165">
+        <v>4</v>
+      </c>
+      <c r="E73" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
+      <c r="I73" s="165"/>
+      <c r="J73" s="165"/>
+      <c r="K73" s="165"/>
+      <c r="L73" s="165"/>
+      <c r="M73" s="165"/>
+      <c r="N73" s="165"/>
+      <c r="O73" s="165"/>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="168"/>
+      <c r="C74" s="165" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="165">
+        <v>40</v>
+      </c>
+      <c r="E74" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="165"/>
+      <c r="H74" s="165"/>
+      <c r="I74" s="165"/>
+      <c r="J74" s="165"/>
+      <c r="K74" s="165"/>
+      <c r="L74" s="165"/>
+      <c r="M74" s="165"/>
+      <c r="N74" s="165"/>
+      <c r="O74" s="165"/>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="168"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="168"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="165"/>
+      <c r="F76" s="165"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="165"/>
+      <c r="L76" s="165"/>
+      <c r="M76" s="165"/>
+      <c r="N76" s="165"/>
+      <c r="O76" s="165"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="168"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="165"/>
+      <c r="F77" s="165"/>
+      <c r="G77" s="165"/>
+      <c r="H77" s="165"/>
+      <c r="I77" s="165"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="165"/>
+      <c r="L77" s="165"/>
+      <c r="M77" s="165"/>
+      <c r="N77" s="165"/>
+      <c r="O77" s="165"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="168"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="165"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="165"/>
+      <c r="H78" s="165"/>
+      <c r="I78" s="165"/>
+      <c r="J78" s="165"/>
+      <c r="K78" s="165"/>
+      <c r="L78" s="165"/>
+      <c r="M78" s="165"/>
+      <c r="N78" s="165"/>
+      <c r="O78" s="165"/>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="168"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+      <c r="K79" s="165"/>
+      <c r="L79" s="165"/>
+      <c r="M79" s="165"/>
+      <c r="N79" s="165"/>
+      <c r="O79" s="165"/>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="168"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="165"/>
+      <c r="O80" s="165"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="168"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="165"/>
+      <c r="F81" s="165"/>
+      <c r="G81" s="165"/>
+      <c r="H81" s="165"/>
+      <c r="I81" s="165"/>
+      <c r="J81" s="165"/>
+      <c r="K81" s="165"/>
+      <c r="L81" s="165"/>
+      <c r="M81" s="165"/>
+      <c r="N81" s="165"/>
+      <c r="O81" s="165"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="168"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="165"/>
+      <c r="O82" s="165"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="168"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="165"/>
+      <c r="O83" s="165"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="168"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
+      <c r="G84" s="165"/>
+      <c r="H84" s="165"/>
+      <c r="I84" s="165"/>
+      <c r="J84" s="165"/>
+      <c r="K84" s="165"/>
+      <c r="L84" s="165"/>
+      <c r="M84" s="165"/>
+      <c r="N84" s="165"/>
+      <c r="O84" s="165"/>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="168"/>
+      <c r="C85" s="165"/>
+      <c r="D85" s="165"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="165"/>
+      <c r="G85" s="165"/>
+      <c r="H85" s="165"/>
+      <c r="I85" s="165"/>
+      <c r="J85" s="165"/>
+      <c r="K85" s="165"/>
+      <c r="L85" s="165"/>
+      <c r="M85" s="165"/>
+      <c r="N85" s="165"/>
+      <c r="O85" s="165"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="168"/>
+      <c r="C86" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="165"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="165"/>
+      <c r="J86" s="165"/>
+      <c r="K86" s="165"/>
+      <c r="L86" s="165"/>
+      <c r="M86" s="165"/>
+      <c r="N86" s="165"/>
+      <c r="O86" s="165"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="168"/>
+      <c r="C87" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="165"/>
+      <c r="E87" s="165"/>
+      <c r="F87" s="165"/>
+      <c r="G87" s="165"/>
+      <c r="H87" s="165"/>
+      <c r="I87" s="165"/>
+      <c r="J87" s="165"/>
+      <c r="K87" s="165"/>
+      <c r="L87" s="165"/>
+      <c r="M87" s="165"/>
+      <c r="N87" s="165"/>
+      <c r="O87" s="165"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="168"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="165"/>
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="165"/>
+      <c r="M88" s="165"/>
+      <c r="N88" s="165"/>
+      <c r="O88" s="165"/>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="168"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="165"/>
+      <c r="F89" s="165"/>
+      <c r="G89" s="165"/>
+      <c r="H89" s="165"/>
+      <c r="I89" s="165"/>
+      <c r="J89" s="165"/>
+      <c r="K89" s="165"/>
+      <c r="L89" s="165"/>
+      <c r="M89" s="165"/>
+      <c r="N89" s="165"/>
+      <c r="O89" s="165"/>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="168"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="165"/>
+      <c r="M90" s="165"/>
+      <c r="N90" s="165"/>
+      <c r="O90" s="165"/>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="168"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="165"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="165"/>
+      <c r="I91" s="165"/>
+      <c r="J91" s="165"/>
+      <c r="K91" s="165"/>
+      <c r="L91" s="165"/>
+      <c r="M91" s="165"/>
+      <c r="N91" s="165"/>
+      <c r="O91" s="165"/>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="168"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="165"/>
+      <c r="L92" s="165"/>
+      <c r="M92" s="165"/>
+      <c r="N92" s="165"/>
+      <c r="O92" s="165"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="168"/>
+      <c r="C93" s="165"/>
+      <c r="D93" s="165"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="165"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="165"/>
+      <c r="K93" s="165"/>
+      <c r="L93" s="165"/>
+      <c r="M93" s="165"/>
+      <c r="N93" s="165"/>
+      <c r="O93" s="165"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="168"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="165"/>
+      <c r="F94" s="165"/>
+      <c r="G94" s="165"/>
+      <c r="H94" s="165"/>
+      <c r="I94" s="165"/>
+      <c r="J94" s="165"/>
+      <c r="K94" s="165"/>
+      <c r="L94" s="165"/>
+      <c r="M94" s="165"/>
+      <c r="N94" s="165"/>
+      <c r="O94" s="165"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="168"/>
+      <c r="C95" s="165"/>
+      <c r="D95" s="165" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="165">
+        <v>40</v>
+      </c>
+      <c r="F95" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="165"/>
+      <c r="H95" s="165"/>
+      <c r="I95" s="165"/>
+      <c r="J95" s="165"/>
+      <c r="K95" s="165"/>
+      <c r="L95" s="165"/>
+      <c r="M95" s="165"/>
+      <c r="N95" s="165"/>
+      <c r="O95" s="165"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="168"/>
+      <c r="C96" s="165"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="165"/>
+      <c r="F96" s="165"/>
+      <c r="G96" s="165"/>
+      <c r="H96" s="165"/>
+      <c r="I96" s="165"/>
+      <c r="J96" s="165"/>
+      <c r="K96" s="165"/>
+      <c r="L96" s="165"/>
+      <c r="M96" s="165"/>
+      <c r="N96" s="165"/>
+      <c r="O96" s="165"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="168"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
+      <c r="L97" s="165"/>
+      <c r="M97" s="165"/>
+      <c r="N97" s="165"/>
+      <c r="O97" s="165"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="168"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
+      <c r="G98" s="165"/>
+      <c r="H98" s="165"/>
+      <c r="I98" s="165"/>
+      <c r="J98" s="165"/>
+      <c r="K98" s="165"/>
+      <c r="L98" s="165"/>
+      <c r="M98" s="165"/>
+      <c r="N98" s="165"/>
+      <c r="O98" s="165"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="168"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="165"/>
+      <c r="G99" s="165"/>
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+      <c r="L99" s="165"/>
+      <c r="M99" s="165"/>
+      <c r="N99" s="165"/>
+      <c r="O99" s="165"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="168"/>
+      <c r="C100" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="170"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="170"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="170"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="170"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="170"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="170"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="170"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="170"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167">
-        <v>1400</v>
-      </c>
-      <c r="E22" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="167"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="170"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="167"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="170"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="167"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="170"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="167"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="170"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="167"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
-      <c r="C27" s="167" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="167" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="167"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167">
-        <v>1400</v>
-      </c>
-      <c r="E34" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="167"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="167"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="170"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="167"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="167"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="167"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="170"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="167"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="170"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="167"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="170"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="167"/>
-      <c r="O43" s="167"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="167"/>
-      <c r="O44" s="167"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167"/>
-      <c r="M45" s="167"/>
-      <c r="N45" s="167"/>
-      <c r="O45" s="167"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="167"/>
-      <c r="O46" s="167"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="170"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="167"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="167"/>
-      <c r="O47" s="167"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="167"/>
-      <c r="O48" s="167"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="170"/>
-      <c r="C49" s="167" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="167"/>
-      <c r="O49" s="167"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="170"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="167"/>
-      <c r="O52" s="167"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="170"/>
-      <c r="C53" s="167" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="167">
-        <v>20</v>
-      </c>
-      <c r="E53" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="167"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="170"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="167"/>
-      <c r="K55" s="167"/>
-      <c r="L55" s="167"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="167"/>
-      <c r="O55" s="167"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="170"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="167"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="167"/>
-      <c r="O56" s="167"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="170"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="167"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="170"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="170"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167"/>
-      <c r="K59" s="167"/>
-      <c r="L59" s="167"/>
-      <c r="M59" s="167"/>
-      <c r="N59" s="167"/>
-      <c r="O59" s="167"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="170"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="167"/>
-      <c r="I60" s="167"/>
-      <c r="J60" s="167"/>
-      <c r="K60" s="167"/>
-      <c r="L60" s="167"/>
-      <c r="M60" s="167"/>
-      <c r="N60" s="167"/>
-      <c r="O60" s="167"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="170"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="167"/>
-      <c r="K61" s="167"/>
-      <c r="L61" s="167"/>
-      <c r="M61" s="167"/>
-      <c r="N61" s="167"/>
-      <c r="O61" s="167"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
-      <c r="O62" s="167"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="167"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="167"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="167"/>
-      <c r="J63" s="167"/>
-      <c r="K63" s="167"/>
-      <c r="L63" s="167"/>
-      <c r="M63" s="167"/>
-      <c r="N63" s="167"/>
-      <c r="O63" s="167"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
-      <c r="J64" s="167"/>
-      <c r="K64" s="167"/>
-      <c r="L64" s="167"/>
-      <c r="M64" s="167"/>
-      <c r="N64" s="167"/>
-      <c r="O64" s="167"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
-      <c r="J65" s="167"/>
-      <c r="K65" s="167"/>
-      <c r="L65" s="167"/>
-      <c r="M65" s="167"/>
-      <c r="N65" s="167"/>
-      <c r="O65" s="167"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
-      <c r="J66" s="167"/>
-      <c r="K66" s="167"/>
-      <c r="L66" s="167"/>
-      <c r="M66" s="167"/>
-      <c r="N66" s="167"/>
-      <c r="O66" s="167"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
-      <c r="E67" s="167"/>
-      <c r="F67" s="167"/>
-      <c r="G67" s="167"/>
-      <c r="H67" s="167"/>
-      <c r="I67" s="167"/>
-      <c r="J67" s="167"/>
-      <c r="K67" s="167"/>
-      <c r="L67" s="167"/>
-      <c r="M67" s="167"/>
-      <c r="N67" s="167"/>
-      <c r="O67" s="167"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="167"/>
-      <c r="I68" s="167"/>
-      <c r="J68" s="167"/>
-      <c r="K68" s="167"/>
-      <c r="L68" s="167"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="167"/>
-      <c r="O68" s="167"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
-      <c r="I69" s="167"/>
-      <c r="J69" s="167"/>
-      <c r="K69" s="167"/>
-      <c r="L69" s="167"/>
-      <c r="M69" s="167"/>
-      <c r="N69" s="167"/>
-      <c r="O69" s="167"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="167"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="167"/>
-      <c r="H70" s="167"/>
-      <c r="I70" s="167"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="167"/>
-      <c r="L70" s="167"/>
-      <c r="M70" s="167"/>
-      <c r="N70" s="167"/>
-      <c r="O70" s="167"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="167"/>
-      <c r="I71" s="167"/>
-      <c r="J71" s="167"/>
-      <c r="K71" s="167"/>
-      <c r="L71" s="167"/>
-      <c r="M71" s="167"/>
-      <c r="N71" s="167"/>
-      <c r="O71" s="167"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="170"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="167"/>
-      <c r="E72" s="167"/>
-      <c r="F72" s="167"/>
-      <c r="G72" s="167"/>
-      <c r="H72" s="167"/>
-      <c r="I72" s="167"/>
-      <c r="J72" s="167"/>
-      <c r="K72" s="167"/>
-      <c r="L72" s="167"/>
-      <c r="M72" s="167"/>
-      <c r="N72" s="167"/>
-      <c r="O72" s="167"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="170"/>
-      <c r="C73" s="167" t="s">
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="165"/>
+      <c r="M100" s="165"/>
+      <c r="N100" s="165"/>
+      <c r="O100" s="165"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="168"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="165"/>
+      <c r="I101" s="165"/>
+      <c r="J101" s="165"/>
+      <c r="K101" s="165"/>
+      <c r="L101" s="165"/>
+      <c r="M101" s="165"/>
+      <c r="N101" s="165"/>
+      <c r="O101" s="165"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" s="168"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="165"/>
+      <c r="I102" s="165"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="165"/>
+      <c r="L102" s="165"/>
+      <c r="M102" s="165"/>
+      <c r="N102" s="165"/>
+      <c r="O102" s="165"/>
+    </row>
+    <row r="103" spans="2:15">
+      <c r="B103" s="168"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="165"/>
+      <c r="I103" s="165"/>
+      <c r="J103" s="165"/>
+      <c r="K103" s="165"/>
+      <c r="L103" s="165"/>
+      <c r="M103" s="165"/>
+      <c r="N103" s="165"/>
+      <c r="O103" s="165"/>
+    </row>
+    <row r="104" spans="2:15">
+      <c r="B104" s="168"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="165"/>
+    </row>
+    <row r="105" spans="2:15">
+      <c r="B105" s="168"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="165"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="165"/>
+      <c r="K105" s="165"/>
+      <c r="L105" s="165"/>
+      <c r="M105" s="165"/>
+      <c r="N105" s="165"/>
+      <c r="O105" s="165"/>
+    </row>
+    <row r="106" spans="2:15">
+      <c r="B106" s="168"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="167">
+      <c r="E106" s="165">
         <v>4</v>
       </c>
-      <c r="E73" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="167"/>
-      <c r="H73" s="167"/>
-      <c r="I73" s="167"/>
-      <c r="J73" s="167"/>
-      <c r="K73" s="167"/>
-      <c r="L73" s="167"/>
-      <c r="M73" s="167"/>
-      <c r="N73" s="167"/>
-      <c r="O73" s="167"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="170"/>
-      <c r="C74" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="167">
-        <v>40</v>
-      </c>
-      <c r="E74" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
-      <c r="I74" s="167"/>
-      <c r="J74" s="167"/>
-      <c r="K74" s="167"/>
-      <c r="L74" s="167"/>
-      <c r="M74" s="167"/>
-      <c r="N74" s="167"/>
-      <c r="O74" s="167"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="170"/>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="167"/>
-      <c r="F75" s="167"/>
-      <c r="G75" s="167"/>
-      <c r="H75" s="167"/>
-      <c r="I75" s="167"/>
-      <c r="J75" s="167"/>
-      <c r="K75" s="167"/>
-      <c r="L75" s="167"/>
-      <c r="M75" s="167"/>
-      <c r="N75" s="167"/>
-      <c r="O75" s="167"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="170"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="167"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="167"/>
-      <c r="J76" s="167"/>
-      <c r="K76" s="167"/>
-      <c r="L76" s="167"/>
-      <c r="M76" s="167"/>
-      <c r="N76" s="167"/>
-      <c r="O76" s="167"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="170"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
-      <c r="F77" s="167"/>
-      <c r="G77" s="167"/>
-      <c r="H77" s="167"/>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="167"/>
-      <c r="N77" s="167"/>
-      <c r="O77" s="167"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="170"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="167"/>
-      <c r="I78" s="167"/>
-      <c r="J78" s="167"/>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
-      <c r="M78" s="167"/>
-      <c r="N78" s="167"/>
-      <c r="O78" s="167"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="170"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
-      <c r="F79" s="167"/>
-      <c r="G79" s="167"/>
-      <c r="H79" s="167"/>
-      <c r="I79" s="167"/>
-      <c r="J79" s="167"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
-      <c r="M79" s="167"/>
-      <c r="N79" s="167"/>
-      <c r="O79" s="167"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="170"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="167"/>
-      <c r="N80" s="167"/>
-      <c r="O80" s="167"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="170"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="167"/>
-      <c r="I81" s="167"/>
-      <c r="J81" s="167"/>
-      <c r="K81" s="167"/>
-      <c r="L81" s="167"/>
-      <c r="M81" s="167"/>
-      <c r="N81" s="167"/>
-      <c r="O81" s="167"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="170"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="167"/>
-      <c r="H82" s="167"/>
-      <c r="I82" s="167"/>
-      <c r="J82" s="167"/>
-      <c r="K82" s="167"/>
-      <c r="L82" s="167"/>
-      <c r="M82" s="167"/>
-      <c r="N82" s="167"/>
-      <c r="O82" s="167"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="170"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="167"/>
-      <c r="I83" s="167"/>
-      <c r="J83" s="167"/>
-      <c r="K83" s="167"/>
-      <c r="L83" s="167"/>
-      <c r="M83" s="167"/>
-      <c r="N83" s="167"/>
-      <c r="O83" s="167"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="170"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
-      <c r="G84" s="167"/>
-      <c r="H84" s="167"/>
-      <c r="I84" s="167"/>
-      <c r="J84" s="167"/>
-      <c r="K84" s="167"/>
-      <c r="L84" s="167"/>
-      <c r="M84" s="167"/>
-      <c r="N84" s="167"/>
-      <c r="O84" s="167"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="170"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
-      <c r="G85" s="167"/>
-      <c r="H85" s="167"/>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
-      <c r="L85" s="167"/>
-      <c r="M85" s="167"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="167"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="170"/>
-      <c r="C86" s="167" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
-      <c r="F86" s="167"/>
-      <c r="G86" s="167"/>
-      <c r="H86" s="167"/>
-      <c r="I86" s="167"/>
-      <c r="J86" s="167"/>
-      <c r="K86" s="167"/>
-      <c r="L86" s="167"/>
-      <c r="M86" s="167"/>
-      <c r="N86" s="167"/>
-      <c r="O86" s="167"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="170"/>
-      <c r="C87" s="167" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
-      <c r="F87" s="167"/>
-      <c r="G87" s="167"/>
-      <c r="H87" s="167"/>
-      <c r="I87" s="167"/>
-      <c r="J87" s="167"/>
-      <c r="K87" s="167"/>
-      <c r="L87" s="167"/>
-      <c r="M87" s="167"/>
-      <c r="N87" s="167"/>
-      <c r="O87" s="167"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="170"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
-      <c r="G88" s="167"/>
-      <c r="H88" s="167"/>
-      <c r="I88" s="167"/>
-      <c r="J88" s="167"/>
-      <c r="K88" s="167"/>
-      <c r="L88" s="167"/>
-      <c r="M88" s="167"/>
-      <c r="N88" s="167"/>
-      <c r="O88" s="167"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="170"/>
-      <c r="C89" s="167"/>
-      <c r="D89" s="167"/>
-      <c r="E89" s="167"/>
-      <c r="F89" s="167"/>
-      <c r="G89" s="167"/>
-      <c r="H89" s="167"/>
-      <c r="I89" s="167"/>
-      <c r="J89" s="167"/>
-      <c r="K89" s="167"/>
-      <c r="L89" s="167"/>
-      <c r="M89" s="167"/>
-      <c r="N89" s="167"/>
-      <c r="O89" s="167"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
-      <c r="E90" s="167"/>
-      <c r="F90" s="167"/>
-      <c r="G90" s="167"/>
-      <c r="H90" s="167"/>
-      <c r="I90" s="167"/>
-      <c r="J90" s="167"/>
-      <c r="K90" s="167"/>
-      <c r="L90" s="167"/>
-      <c r="M90" s="167"/>
-      <c r="N90" s="167"/>
-      <c r="O90" s="167"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="167"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="167"/>
-      <c r="K91" s="167"/>
-      <c r="L91" s="167"/>
-      <c r="M91" s="167"/>
-      <c r="N91" s="167"/>
-      <c r="O91" s="167"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="170"/>
-      <c r="C92" s="167"/>
-      <c r="D92" s="167"/>
-      <c r="E92" s="167"/>
-      <c r="F92" s="167"/>
-      <c r="G92" s="167"/>
-      <c r="H92" s="167"/>
-      <c r="I92" s="167"/>
-      <c r="J92" s="167"/>
-      <c r="K92" s="167"/>
-      <c r="L92" s="167"/>
-      <c r="M92" s="167"/>
-      <c r="N92" s="167"/>
-      <c r="O92" s="167"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="170"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
-      <c r="E93" s="167"/>
-      <c r="F93" s="167"/>
-      <c r="G93" s="167"/>
-      <c r="H93" s="167"/>
-      <c r="I93" s="167"/>
-      <c r="J93" s="167"/>
-      <c r="K93" s="167"/>
-      <c r="L93" s="167"/>
-      <c r="M93" s="167"/>
-      <c r="N93" s="167"/>
-      <c r="O93" s="167"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="170"/>
-      <c r="C94" s="167"/>
-      <c r="D94" s="167"/>
-      <c r="E94" s="167"/>
-      <c r="F94" s="167"/>
-      <c r="G94" s="167"/>
-      <c r="H94" s="167"/>
-      <c r="I94" s="167"/>
-      <c r="J94" s="167"/>
-      <c r="K94" s="167"/>
-      <c r="L94" s="167"/>
-      <c r="M94" s="167"/>
-      <c r="N94" s="167"/>
-      <c r="O94" s="167"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="170"/>
-      <c r="C95" s="167"/>
-      <c r="D95" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="E95" s="167">
-        <v>40</v>
-      </c>
-      <c r="F95" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="G95" s="167"/>
-      <c r="H95" s="167"/>
-      <c r="I95" s="167"/>
-      <c r="J95" s="167"/>
-      <c r="K95" s="167"/>
-      <c r="L95" s="167"/>
-      <c r="M95" s="167"/>
-      <c r="N95" s="167"/>
-      <c r="O95" s="167"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="170"/>
-      <c r="C96" s="167"/>
-      <c r="D96" s="167"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="167"/>
-      <c r="G96" s="167"/>
-      <c r="H96" s="167"/>
-      <c r="I96" s="167"/>
-      <c r="J96" s="167"/>
-      <c r="K96" s="167"/>
-      <c r="L96" s="167"/>
-      <c r="M96" s="167"/>
-      <c r="N96" s="167"/>
-      <c r="O96" s="167"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="170"/>
-      <c r="C97" s="167"/>
-      <c r="D97" s="167"/>
-      <c r="E97" s="167"/>
-      <c r="F97" s="167"/>
-      <c r="G97" s="167"/>
-      <c r="H97" s="167"/>
-      <c r="I97" s="167"/>
-      <c r="J97" s="167"/>
-      <c r="K97" s="167"/>
-      <c r="L97" s="167"/>
-      <c r="M97" s="167"/>
-      <c r="N97" s="167"/>
-      <c r="O97" s="167"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="170"/>
-      <c r="C98" s="167"/>
-      <c r="D98" s="167"/>
-      <c r="E98" s="167"/>
-      <c r="F98" s="167"/>
-      <c r="G98" s="167"/>
-      <c r="H98" s="167"/>
-      <c r="I98" s="167"/>
-      <c r="J98" s="167"/>
-      <c r="K98" s="167"/>
-      <c r="L98" s="167"/>
-      <c r="M98" s="167"/>
-      <c r="N98" s="167"/>
-      <c r="O98" s="167"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="170"/>
-      <c r="C99" s="167"/>
-      <c r="D99" s="167"/>
-      <c r="E99" s="167"/>
-      <c r="F99" s="167"/>
-      <c r="G99" s="167"/>
-      <c r="H99" s="167"/>
-      <c r="I99" s="167"/>
-      <c r="J99" s="167"/>
-      <c r="K99" s="167"/>
-      <c r="L99" s="167"/>
-      <c r="M99" s="167"/>
-      <c r="N99" s="167"/>
-      <c r="O99" s="167"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="170"/>
-      <c r="C100" s="167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D100" s="167"/>
-      <c r="E100" s="167"/>
-      <c r="F100" s="167"/>
-      <c r="G100" s="167"/>
-      <c r="H100" s="167"/>
-      <c r="I100" s="167"/>
-      <c r="J100" s="167"/>
-      <c r="K100" s="167"/>
-      <c r="L100" s="167"/>
-      <c r="M100" s="167"/>
-      <c r="N100" s="167"/>
-      <c r="O100" s="167"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="170"/>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="167"/>
-      <c r="K101" s="167"/>
-      <c r="L101" s="167"/>
-      <c r="M101" s="167"/>
-      <c r="N101" s="167"/>
-      <c r="O101" s="167"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="170"/>
-      <c r="C102" s="167"/>
-      <c r="D102" s="167"/>
-      <c r="E102" s="167"/>
-      <c r="F102" s="167"/>
-      <c r="G102" s="167"/>
-      <c r="H102" s="167"/>
-      <c r="I102" s="167"/>
-      <c r="J102" s="167"/>
-      <c r="K102" s="167"/>
-      <c r="L102" s="167"/>
-      <c r="M102" s="167"/>
-      <c r="N102" s="167"/>
-      <c r="O102" s="167"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="170"/>
-      <c r="C103" s="167"/>
-      <c r="D103" s="167"/>
-      <c r="E103" s="167"/>
-      <c r="F103" s="167"/>
-      <c r="G103" s="167"/>
-      <c r="H103" s="167"/>
-      <c r="I103" s="167"/>
-      <c r="J103" s="167"/>
-      <c r="K103" s="167"/>
-      <c r="L103" s="167"/>
-      <c r="M103" s="167"/>
-      <c r="N103" s="167"/>
-      <c r="O103" s="167"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="170"/>
-      <c r="C104" s="167"/>
-      <c r="D104" s="167"/>
-      <c r="E104" s="167"/>
-      <c r="F104" s="167"/>
-      <c r="G104" s="167"/>
-      <c r="H104" s="167"/>
-      <c r="I104" s="167"/>
-      <c r="J104" s="167"/>
-      <c r="K104" s="167"/>
-      <c r="L104" s="167"/>
-      <c r="M104" s="167"/>
-      <c r="N104" s="167"/>
-      <c r="O104" s="167"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="170"/>
-      <c r="C105" s="167"/>
-      <c r="D105" s="167"/>
-      <c r="E105" s="167"/>
-      <c r="F105" s="167"/>
-      <c r="G105" s="167"/>
-      <c r="H105" s="167"/>
-      <c r="I105" s="167"/>
-      <c r="J105" s="167"/>
-      <c r="K105" s="167"/>
-      <c r="L105" s="167"/>
-      <c r="M105" s="167"/>
-      <c r="N105" s="167"/>
-      <c r="O105" s="167"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="170"/>
-      <c r="C106" s="167"/>
-      <c r="D106" s="167" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="167">
-        <v>4</v>
-      </c>
-      <c r="F106" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="G106" s="167"/>
-      <c r="H106" s="167"/>
-      <c r="I106" s="167"/>
-      <c r="J106" s="167"/>
-      <c r="K106" s="167"/>
-      <c r="L106" s="167"/>
-      <c r="M106" s="167"/>
-      <c r="N106" s="167"/>
-      <c r="O106" s="167"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="170"/>
-      <c r="C107" s="167"/>
-      <c r="D107" s="167"/>
-      <c r="E107" s="167"/>
-      <c r="F107" s="167"/>
-      <c r="G107" s="167"/>
-      <c r="H107" s="167"/>
-      <c r="I107" s="167"/>
-      <c r="J107" s="167"/>
-      <c r="K107" s="167"/>
-      <c r="L107" s="167"/>
-      <c r="M107" s="167"/>
-      <c r="N107" s="167"/>
-      <c r="O107" s="167"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="170"/>
-      <c r="C108" s="167"/>
-      <c r="D108" s="167"/>
-      <c r="E108" s="167"/>
-      <c r="F108" s="167"/>
-      <c r="G108" s="167"/>
-      <c r="H108" s="167"/>
-      <c r="I108" s="167"/>
-      <c r="J108" s="167"/>
-      <c r="K108" s="167"/>
-      <c r="L108" s="167"/>
-      <c r="M108" s="167"/>
-      <c r="N108" s="167"/>
-      <c r="O108" s="167"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="170"/>
-      <c r="C109" s="167"/>
-      <c r="D109" s="167"/>
-      <c r="E109" s="167"/>
-      <c r="F109" s="167"/>
-      <c r="G109" s="167"/>
-      <c r="H109" s="167"/>
-      <c r="I109" s="167"/>
-      <c r="J109" s="167"/>
-      <c r="K109" s="167"/>
-      <c r="L109" s="167"/>
-      <c r="M109" s="167"/>
-      <c r="N109" s="167"/>
-      <c r="O109" s="167"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="170"/>
-      <c r="C110" s="167"/>
-      <c r="D110" s="167"/>
-      <c r="E110" s="167"/>
-      <c r="F110" s="167"/>
-      <c r="G110" s="167"/>
-      <c r="H110" s="167"/>
-      <c r="I110" s="167"/>
-      <c r="J110" s="167"/>
-      <c r="K110" s="167"/>
-      <c r="L110" s="167"/>
-      <c r="M110" s="167"/>
-      <c r="N110" s="167"/>
-      <c r="O110" s="167"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="170"/>
-      <c r="C111" s="167"/>
-      <c r="D111" s="167"/>
-      <c r="E111" s="167"/>
-      <c r="F111" s="167"/>
-      <c r="G111" s="167"/>
-      <c r="H111" s="167"/>
-      <c r="I111" s="167"/>
-      <c r="J111" s="167"/>
-      <c r="K111" s="167"/>
-      <c r="L111" s="167"/>
-      <c r="M111" s="167"/>
-      <c r="N111" s="167"/>
-      <c r="O111" s="167"/>
+      <c r="F106" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="G106" s="165"/>
+      <c r="H106" s="165"/>
+      <c r="I106" s="165"/>
+      <c r="J106" s="165"/>
+      <c r="K106" s="165"/>
+      <c r="L106" s="165"/>
+      <c r="M106" s="165"/>
+      <c r="N106" s="165"/>
+      <c r="O106" s="165"/>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="B107" s="168"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="165"/>
+      <c r="O107" s="165"/>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" s="168"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="165"/>
+      <c r="G108" s="165"/>
+      <c r="H108" s="165"/>
+      <c r="I108" s="165"/>
+      <c r="J108" s="165"/>
+      <c r="K108" s="165"/>
+      <c r="L108" s="165"/>
+      <c r="M108" s="165"/>
+      <c r="N108" s="165"/>
+      <c r="O108" s="165"/>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="B109" s="168"/>
+      <c r="C109" s="165"/>
+      <c r="D109" s="165"/>
+      <c r="E109" s="165"/>
+      <c r="F109" s="165"/>
+      <c r="G109" s="165"/>
+      <c r="H109" s="165"/>
+      <c r="I109" s="165"/>
+      <c r="J109" s="165"/>
+      <c r="K109" s="165"/>
+      <c r="L109" s="165"/>
+      <c r="M109" s="165"/>
+      <c r="N109" s="165"/>
+      <c r="O109" s="165"/>
+    </row>
+    <row r="110" spans="2:15">
+      <c r="B110" s="168"/>
+      <c r="C110" s="165"/>
+      <c r="D110" s="165"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="165"/>
+      <c r="G110" s="165"/>
+      <c r="H110" s="165"/>
+      <c r="I110" s="165"/>
+      <c r="J110" s="165"/>
+      <c r="K110" s="165"/>
+      <c r="L110" s="165"/>
+      <c r="M110" s="165"/>
+      <c r="N110" s="165"/>
+      <c r="O110" s="165"/>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" s="168"/>
+      <c r="C111" s="165"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="165"/>
+      <c r="F111" s="165"/>
+      <c r="G111" s="165"/>
+      <c r="H111" s="165"/>
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="165"/>
+      <c r="L111" s="165"/>
+      <c r="M111" s="165"/>
+      <c r="N111" s="165"/>
+      <c r="O111" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A342B1-839F-DA47-9E8D-ED9F71E4D906}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74613AC-F28A-0D4C-9458-47319AC193C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -242,9 +248,6 @@
   </si>
   <si>
     <t>input.coal</t>
-  </si>
-  <si>
-    <t>input.torrified_biomass_pellets</t>
   </si>
   <si>
     <t>euro/FLH</t>
@@ -861,6 +864,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
   </si>
 </sst>
 </file>
@@ -996,6 +1002,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,6 +1010,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,6 +1018,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1017,6 +1026,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,6 +1034,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,6 +1054,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2931,10 +2943,10 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2959,7 +2971,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="118"/>
     </row>
@@ -2971,31 +2983,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="121" t="s">
         <v>107</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="119"/>
       <c r="C12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3006,58 +3018,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="123" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3073,8 +3085,8 @@
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3097,7 +3109,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="172"/>
       <c r="D2" s="172"/>
@@ -3182,7 +3194,7 @@
     <row r="10" spans="2:11" s="38" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="26"/>
       <c r="C10" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="14"/>
@@ -3207,7 +3219,7 @@
       <c r="G11" s="62"/>
       <c r="H11" s="45"/>
       <c r="I11" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="15"/>
     </row>
@@ -3226,7 +3238,7 @@
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="146"/>
       <c r="K12" s="59"/>
@@ -3246,7 +3258,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="146"/>
       <c r="K13" s="59"/>
@@ -3266,7 +3278,7 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="146"/>
       <c r="K14" s="59"/>
@@ -3286,7 +3298,7 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="146"/>
       <c r="K15" s="59"/>
@@ -3306,7 +3318,7 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="146"/>
       <c r="K16" s="59"/>
@@ -3326,7 +3338,7 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="146"/>
       <c r="K17" s="59"/>
@@ -3337,7 +3349,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="65">
         <f>'Research data'!H6</f>
@@ -3349,7 +3361,7 @@
       </c>
       <c r="H18" s="62"/>
       <c r="I18" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="146"/>
     </row>
@@ -3359,18 +3371,18 @@
         <v>48</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="65">
         <v>0</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="62"/>
       <c r="I19" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="146"/>
     </row>
@@ -3388,7 +3400,7 @@
     <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="64"/>
       <c r="C21" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="149"/>
       <c r="E21" s="145"/>
@@ -3416,7 +3428,7 @@
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="146"/>
     </row>
@@ -3433,11 +3445,11 @@
       </c>
       <c r="F23" s="62"/>
       <c r="G23" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="146"/>
     </row>
@@ -3458,7 +3470,7 @@
       </c>
       <c r="H24" s="62"/>
       <c r="I24" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="146"/>
     </row>
@@ -3479,7 +3491,7 @@
       </c>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="146"/>
     </row>
@@ -3489,7 +3501,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="144">
         <f>'Research data'!H17</f>
@@ -3497,11 +3509,11 @@
       </c>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="62"/>
       <c r="I26" s="115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="146"/>
     </row>
@@ -3511,7 +3523,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="65">
         <f>'Research data'!H19</f>
@@ -3519,11 +3531,11 @@
       </c>
       <c r="F27" s="62"/>
       <c r="G27" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="146"/>
     </row>
@@ -3533,18 +3545,18 @@
         <v>54</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="65">
         <v>0</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="62"/>
       <c r="I28" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="146"/>
     </row>
@@ -3565,7 +3577,7 @@
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="146"/>
     </row>
@@ -3584,7 +3596,7 @@
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="146"/>
     </row>
@@ -3630,7 +3642,7 @@
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="146"/>
     </row>
@@ -3652,7 +3664,7 @@
       </c>
       <c r="H34" s="62"/>
       <c r="I34" s="153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J34" s="146"/>
     </row>
@@ -3674,7 +3686,7 @@
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="146"/>
     </row>
@@ -3693,7 +3705,7 @@
       <c r="G36" s="62"/>
       <c r="H36" s="62"/>
       <c r="I36" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J36" s="146"/>
     </row>
@@ -3712,7 +3724,7 @@
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
       <c r="I37" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37" s="146"/>
     </row>
@@ -3731,7 +3743,7 @@
       <c r="G38" s="62"/>
       <c r="H38" s="62"/>
       <c r="I38" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="146"/>
     </row>
@@ -3750,7 +3762,7 @@
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
       <c r="I39" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" s="146"/>
     </row>
@@ -3769,7 +3781,7 @@
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="146"/>
     </row>
@@ -3788,7 +3800,7 @@
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
       <c r="I41" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J41" s="146"/>
     </row>
@@ -3807,14 +3819,14 @@
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" s="146"/>
     </row>
     <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="64"/>
       <c r="C43" s="62" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>5</v>
@@ -3826,7 +3838,7 @@
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J43" s="146"/>
     </row>
@@ -3910,7 +3922,7 @@
     <row r="3" spans="2:20" s="38" customFormat="1">
       <c r="B3" s="26"/>
       <c r="C3" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3919,15 +3931,15 @@
       </c>
       <c r="G3" s="138"/>
       <c r="H3" s="138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="138"/>
       <c r="J3" s="143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="143"/>
       <c r="L3" s="143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="143"/>
       <c r="N3" s="143" t="s">
@@ -3935,15 +3947,15 @@
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="143"/>
       <c r="R3" s="143" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="138"/>
       <c r="T3" s="138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -3970,7 +3982,7 @@
     <row r="5" spans="2:20" ht="17" thickBot="1">
       <c r="B5" s="75"/>
       <c r="C5" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -3998,7 +4010,7 @@
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
       <c r="F6" s="135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="139"/>
       <c r="H6" s="81">
@@ -4118,7 +4130,7 @@
     <row r="11" spans="2:20" ht="17" thickBot="1">
       <c r="B11" s="75"/>
       <c r="C11" s="141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -4146,7 +4158,7 @@
         <v>0.28313100000000002</v>
       </c>
       <c r="T11" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:20">
@@ -4165,7 +4177,7 @@
       <c r="N12" s="69"/>
       <c r="O12" s="69"/>
       <c r="T12" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -4187,13 +4199,13 @@
       <c r="Q13" s="91"/>
       <c r="R13" s="91"/>
       <c r="T13" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" thickBot="1">
       <c r="B14" s="75"/>
       <c r="C14" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4215,7 +4227,7 @@
     <row r="15" spans="2:20" ht="17" thickBot="1">
       <c r="B15" s="75"/>
       <c r="C15" s="134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4247,7 +4259,7 @@
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
       <c r="F16" s="135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="139"/>
       <c r="H16" s="95">
@@ -4275,12 +4287,12 @@
     <row r="17" spans="2:20" ht="17" thickBot="1">
       <c r="B17" s="75"/>
       <c r="C17" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="137"/>
       <c r="H17" s="98">
@@ -4305,12 +4317,12 @@
     <row r="18" spans="2:20" ht="17" thickBot="1">
       <c r="B18" s="75"/>
       <c r="C18" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
       <c r="F18" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="137"/>
       <c r="H18" s="98">
@@ -4330,18 +4342,18 @@
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
       <c r="T18" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="17" thickBot="1">
       <c r="B19" s="75"/>
       <c r="C19" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="95">
@@ -4359,18 +4371,18 @@
       <c r="Q19" s="69"/>
       <c r="R19" s="69"/>
       <c r="T19" s="116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17" thickBot="1">
       <c r="B20" s="75"/>
       <c r="C20" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
       <c r="F20" s="80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="95">
@@ -4392,12 +4404,12 @@
     <row r="21" spans="2:20" ht="17" thickBot="1">
       <c r="B21" s="75"/>
       <c r="C21" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
       <c r="F21" s="135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="139"/>
       <c r="H21" s="102">
@@ -4414,18 +4426,18 @@
       <c r="Q21" s="69"/>
       <c r="R21" s="69"/>
       <c r="T21" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="17" thickBot="1">
       <c r="B22" s="75"/>
       <c r="C22" s="142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="101">
@@ -4446,12 +4458,12 @@
     <row r="23" spans="2:20" ht="17" thickBot="1">
       <c r="B23" s="75"/>
       <c r="C23" s="150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
       <c r="F23" s="136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="120"/>
       <c r="H23" s="101">
@@ -4557,13 +4569,13 @@
         <v>35</v>
       </c>
       <c r="G5" s="158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
@@ -4591,7 +4603,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="32">
+    <row r="8" spans="2:10" ht="34">
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
@@ -4601,17 +4613,17 @@
         <v>25</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="164">
         <v>2010</v>
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -4651,33 +4663,33 @@
       <c r="I11" s="35"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="2:10" ht="32">
+    <row r="12" spans="2:10" ht="34">
       <c r="B12" s="23"/>
       <c r="C12" s="109"/>
       <c r="D12" s="103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="34"/>
@@ -4703,7 +4715,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="22"/>
@@ -4716,7 +4728,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="22"/>
@@ -4741,27 +4753,27 @@
       <c r="B18" s="23"/>
       <c r="C18" s="32"/>
       <c r="D18" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="36"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="23"/>
       <c r="C19" s="133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="22"/>
@@ -4786,7 +4798,7 @@
       <c r="B21" s="23"/>
       <c r="C21" s="56"/>
       <c r="D21" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="56" t="s">
         <v>10</v>
@@ -4794,20 +4806,20 @@
       <c r="F21" s="32"/>
       <c r="G21" s="163"/>
       <c r="H21" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="23"/>
       <c r="C22" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -4831,7 +4843,7 @@
       <c r="B24" s="23"/>
       <c r="C24" s="56"/>
       <c r="D24" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="56" t="s">
         <v>10</v>
@@ -4839,20 +4851,20 @@
       <c r="F24" s="32"/>
       <c r="G24" s="163"/>
       <c r="H24" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="23"/>
       <c r="C25" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="32"/>
@@ -4907,11 +4919,11 @@
     <row r="3" spans="2:15" s="38" customFormat="1">
       <c r="B3" s="147"/>
       <c r="C3" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -4943,7 +4955,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="168"/>
       <c r="C5" s="165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="165"/>
       <c r="E5" s="165"/>
@@ -4977,7 +4989,7 @@
     <row r="7" spans="2:15">
       <c r="B7" s="168"/>
       <c r="C7" s="165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="165"/>
       <c r="E7" s="165"/>
@@ -5223,7 +5235,7 @@
         <v>1400</v>
       </c>
       <c r="E22" s="165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="165"/>
       <c r="G22" s="165"/>
@@ -5303,7 +5315,7 @@
     <row r="27" spans="2:15">
       <c r="B27" s="168"/>
       <c r="C27" s="165" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="165"/>
       <c r="E27" s="165"/>
@@ -5337,7 +5349,7 @@
     <row r="29" spans="2:15">
       <c r="B29" s="168"/>
       <c r="C29" s="165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="165"/>
       <c r="E29" s="165"/>
@@ -5423,7 +5435,7 @@
         <v>1400</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="165"/>
       <c r="G34" s="165"/>
@@ -5663,7 +5675,7 @@
     <row r="49" spans="2:15">
       <c r="B49" s="168"/>
       <c r="C49" s="165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="165"/>
       <c r="E49" s="165"/>
@@ -5729,13 +5741,13 @@
     <row r="53" spans="2:15">
       <c r="B53" s="168"/>
       <c r="C53" s="165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="165">
         <v>20</v>
       </c>
       <c r="E53" s="165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="165"/>
       <c r="G53" s="165"/>
@@ -5975,7 +5987,7 @@
     <row r="68" spans="2:15">
       <c r="B68" s="168"/>
       <c r="C68" s="165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" s="165"/>
       <c r="E68" s="165"/>
@@ -6063,7 +6075,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="165" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G73" s="165"/>
       <c r="H73" s="165"/>
@@ -6078,13 +6090,13 @@
     <row r="74" spans="2:15">
       <c r="B74" s="168"/>
       <c r="C74" s="165" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="165">
         <v>40</v>
       </c>
       <c r="E74" s="165" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G74" s="165"/>
       <c r="H74" s="165"/>
@@ -6293,7 +6305,7 @@
     <row r="87" spans="2:15">
       <c r="B87" s="168"/>
       <c r="C87" s="165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D87" s="165"/>
       <c r="E87" s="165"/>
@@ -6424,13 +6436,13 @@
       <c r="B95" s="168"/>
       <c r="C95" s="165"/>
       <c r="D95" s="165" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="165">
         <v>40</v>
       </c>
       <c r="F95" s="165" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G95" s="165"/>
       <c r="H95" s="165"/>
@@ -6509,7 +6521,7 @@
     <row r="100" spans="2:15">
       <c r="B100" s="168"/>
       <c r="C100" s="165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" s="165"/>
       <c r="E100" s="165"/>
@@ -6614,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="165" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G106" s="165"/>
       <c r="H106" s="165"/>

--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74613AC-F28A-0D4C-9458-47319AC193C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2F377-D94E-DC45-BC08-F72BF7700F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
   <si>
     <t>Source</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>input.torrefied_biomass_pellets</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1610,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1944,6 +1947,7 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2906,12 +2910,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="41" customFormat="1">
@@ -3085,23 +3089,23 @@
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="58" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="58" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="58" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="58" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="58" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="58"/>
+    <col min="1" max="1" width="3.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3569,15 +3573,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="65">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="62"/>
-      <c r="I29" s="63" t="s">
-        <v>67</v>
+      <c r="I29" s="180" t="s">
+        <v>157</v>
       </c>
       <c r="J29" s="146"/>
     </row>
@@ -3873,28 +3877,28 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="70" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="70" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="70" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="71" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="71" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="70" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="70" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="71" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="71" customWidth="1"/>
     <col min="13" max="13" width="2" style="71" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="71" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="70" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="71" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="70" customWidth="1"/>
     <col min="16" max="16" width="10" style="71" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="71" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" style="71" customWidth="1"/>
     <col min="18" max="18" width="10" style="71" customWidth="1"/>
-    <col min="19" max="19" width="2.1640625" style="70" customWidth="1"/>
-    <col min="20" max="20" width="73.83203125" style="70" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="70"/>
+    <col min="19" max="19" width="2.140625" style="70" customWidth="1"/>
+    <col min="20" max="20" width="73.85546875" style="70" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1"/>
@@ -4503,19 +4507,19 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="154" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="27" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="25"/>
+    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="154" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4890,13 +4894,13 @@
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="151" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="151" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="151"/>
+    <col min="2" max="2" width="4.85546875" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="151" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
